--- a/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
+++ b/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
@@ -632,7 +632,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:AW97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
@@ -970,10 +970,10 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -1179,10 +1179,10 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
@@ -1282,10 +1282,10 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
@@ -1456,10 +1456,10 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
@@ -1640,10 +1640,10 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
@@ -1732,10 +1732,10 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
@@ -1941,10 +1941,10 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
@@ -2044,10 +2044,10 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -2150,10 +2150,10 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -2253,10 +2253,10 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -2345,10 +2345,10 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -2432,10 +2432,10 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -2524,10 +2524,10 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -2616,10 +2616,10 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -2708,10 +2708,10 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -2800,10 +2800,10 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
@@ -2892,10 +2892,10 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -2984,10 +2984,10 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -3087,10 +3087,10 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -3193,10 +3193,10 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
@@ -3402,10 +3402,10 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
@@ -3505,10 +3505,10 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
@@ -3597,10 +3597,10 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
@@ -3684,10 +3684,10 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
@@ -3787,10 +3787,10 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
@@ -3893,10 +3893,10 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
@@ -3996,10 +3996,10 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
@@ -4102,10 +4102,10 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
@@ -4205,10 +4205,10 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
@@ -4297,10 +4297,10 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
@@ -4389,10 +4389,10 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
@@ -4492,10 +4492,10 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
@@ -4598,10 +4598,10 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
@@ -4807,10 +4807,10 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
@@ -4910,10 +4910,10 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
@@ -5002,10 +5002,10 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
@@ -5094,10 +5094,10 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
@@ -5197,10 +5197,10 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
@@ -5303,10 +5303,10 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
@@ -5406,10 +5406,10 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
@@ -5512,10 +5512,10 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
@@ -5615,10 +5615,10 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
@@ -5707,10 +5707,10 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
@@ -5799,10 +5799,10 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
@@ -5907,10 +5907,10 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
@@ -6015,10 +6015,10 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
@@ -6102,10 +6102,10 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
@@ -6189,10 +6189,10 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
@@ -6274,10 +6274,10 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
@@ -6359,10 +6359,10 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
@@ -6444,10 +6444,10 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
@@ -6529,10 +6529,10 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
@@ -6614,10 +6614,10 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
@@ -6699,10 +6699,10 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
@@ -6799,10 +6799,10 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
@@ -6886,10 +6886,10 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
@@ -6973,10 +6973,10 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
@@ -7076,10 +7076,10 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
@@ -7182,10 +7182,10 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
@@ -7285,10 +7285,10 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
@@ -7391,10 +7391,10 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
@@ -7494,10 +7494,10 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
@@ -7597,10 +7597,10 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
@@ -7700,10 +7700,10 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
@@ -7792,10 +7792,10 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
@@ -7884,10 +7884,10 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
@@ -7992,10 +7992,10 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
@@ -8100,10 +8100,10 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
@@ -8195,10 +8195,10 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
@@ -8290,10 +8290,10 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
@@ -8390,10 +8390,10 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
@@ -8493,10 +8493,10 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
@@ -8593,10 +8593,10 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
@@ -8696,10 +8696,10 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
@@ -8796,10 +8796,10 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
@@ -8896,10 +8896,10 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
@@ -8996,10 +8996,10 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
@@ -9088,10 +9088,10 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
@@ -9180,10 +9180,10 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
@@ -9283,10 +9283,10 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
@@ -9389,10 +9389,10 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
@@ -9492,10 +9492,10 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
@@ -9598,10 +9598,10 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
@@ -9701,10 +9701,10 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
@@ -9804,10 +9804,10 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
@@ -9907,10 +9907,10 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
@@ -9999,10 +9999,10 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
@@ -10091,10 +10091,10 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>84</v>
+        <v>1091.16</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.19</v>
+        <v>2.41</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
@@ -10102,6 +10102,7 @@
         </is>
       </c>
     </row>
+    <row r="97"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -10113,7 +10114,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA147"/>
+  <dimension ref="A1:AW148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10361,10 +10362,10 @@
         </is>
       </c>
       <c r="Y2" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
@@ -10475,10 +10476,10 @@
         </is>
       </c>
       <c r="Y3" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
@@ -10589,10 +10590,10 @@
         </is>
       </c>
       <c r="Y4" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
@@ -10703,10 +10704,10 @@
         </is>
       </c>
       <c r="Y5" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
@@ -10817,10 +10818,10 @@
         </is>
       </c>
       <c r="Y6" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
@@ -10931,10 +10932,10 @@
         </is>
       </c>
       <c r="Y7" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
@@ -11045,10 +11046,10 @@
         </is>
       </c>
       <c r="Y8" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
@@ -11159,10 +11160,10 @@
         </is>
       </c>
       <c r="Y9" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
@@ -11273,10 +11274,10 @@
         </is>
       </c>
       <c r="Y10" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
@@ -11387,10 +11388,10 @@
         </is>
       </c>
       <c r="Y11" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
@@ -11501,10 +11502,10 @@
         </is>
       </c>
       <c r="Y12" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
@@ -11615,10 +11616,10 @@
         </is>
       </c>
       <c r="Y13" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
@@ -11729,10 +11730,10 @@
         </is>
       </c>
       <c r="Y14" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
@@ -11843,10 +11844,10 @@
         </is>
       </c>
       <c r="Y15" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
@@ -11957,10 +11958,10 @@
         </is>
       </c>
       <c r="Y16" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
@@ -12071,10 +12072,10 @@
         </is>
       </c>
       <c r="Y17" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
@@ -12185,10 +12186,10 @@
         </is>
       </c>
       <c r="Y18" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
@@ -12299,10 +12300,10 @@
         </is>
       </c>
       <c r="Y19" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
@@ -12413,10 +12414,10 @@
         </is>
       </c>
       <c r="Y20" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
@@ -12527,10 +12528,10 @@
         </is>
       </c>
       <c r="Y21" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
@@ -12641,10 +12642,10 @@
         </is>
       </c>
       <c r="Y22" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
@@ -12755,10 +12756,10 @@
         </is>
       </c>
       <c r="Y23" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
@@ -12869,10 +12870,10 @@
         </is>
       </c>
       <c r="Y24" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
@@ -12983,10 +12984,10 @@
         </is>
       </c>
       <c r="Y25" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
@@ -13097,10 +13098,10 @@
         </is>
       </c>
       <c r="Y26" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
@@ -13211,10 +13212,10 @@
         </is>
       </c>
       <c r="Y27" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
@@ -13325,10 +13326,10 @@
         </is>
       </c>
       <c r="Y28" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
@@ -13439,10 +13440,10 @@
         </is>
       </c>
       <c r="Y29" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
@@ -13553,10 +13554,10 @@
         </is>
       </c>
       <c r="Y30" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
@@ -13667,10 +13668,10 @@
         </is>
       </c>
       <c r="Y31" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
@@ -13781,10 +13782,10 @@
         </is>
       </c>
       <c r="Y32" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z32" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
@@ -13895,10 +13896,10 @@
         </is>
       </c>
       <c r="Y33" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z33" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
@@ -14009,10 +14010,10 @@
         </is>
       </c>
       <c r="Y34" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
@@ -14123,10 +14124,10 @@
         </is>
       </c>
       <c r="Y35" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
@@ -14237,10 +14238,10 @@
         </is>
       </c>
       <c r="Y36" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z36" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
@@ -14351,10 +14352,10 @@
         </is>
       </c>
       <c r="Y37" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z37" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
@@ -14465,10 +14466,10 @@
         </is>
       </c>
       <c r="Y38" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z38" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
@@ -14579,10 +14580,10 @@
         </is>
       </c>
       <c r="Y39" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z39" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
@@ -14693,10 +14694,10 @@
         </is>
       </c>
       <c r="Y40" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z40" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
@@ -14807,10 +14808,10 @@
         </is>
       </c>
       <c r="Y41" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z41" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
@@ -14921,10 +14922,10 @@
         </is>
       </c>
       <c r="Y42" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z42" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
@@ -15035,10 +15036,10 @@
         </is>
       </c>
       <c r="Y43" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z43" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
@@ -15149,10 +15150,10 @@
         </is>
       </c>
       <c r="Y44" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z44" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
@@ -15263,10 +15264,10 @@
         </is>
       </c>
       <c r="Y45" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
@@ -15377,10 +15378,10 @@
         </is>
       </c>
       <c r="Y46" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z46" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
@@ -15491,10 +15492,10 @@
         </is>
       </c>
       <c r="Y47" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z47" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
@@ -15605,10 +15606,10 @@
         </is>
       </c>
       <c r="Y48" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z48" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
@@ -15719,10 +15720,10 @@
         </is>
       </c>
       <c r="Y49" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z49" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
@@ -15833,10 +15834,10 @@
         </is>
       </c>
       <c r="Y50" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z50" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
@@ -15947,10 +15948,10 @@
         </is>
       </c>
       <c r="Y51" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z51" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
@@ -16061,10 +16062,10 @@
         </is>
       </c>
       <c r="Y52" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z52" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
@@ -16175,10 +16176,10 @@
         </is>
       </c>
       <c r="Y53" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
@@ -16289,10 +16290,10 @@
         </is>
       </c>
       <c r="Y54" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z54" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
@@ -16403,10 +16404,10 @@
         </is>
       </c>
       <c r="Y55" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z55" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
@@ -16517,10 +16518,10 @@
         </is>
       </c>
       <c r="Y56" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z56" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
@@ -16631,10 +16632,10 @@
         </is>
       </c>
       <c r="Y57" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z57" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA57" t="inlineStr">
         <is>
@@ -16745,10 +16746,10 @@
         </is>
       </c>
       <c r="Y58" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z58" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA58" t="inlineStr">
         <is>
@@ -16859,10 +16860,10 @@
         </is>
       </c>
       <c r="Y59" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z59" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA59" t="inlineStr">
         <is>
@@ -16973,10 +16974,10 @@
         </is>
       </c>
       <c r="Y60" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z60" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA60" t="inlineStr">
         <is>
@@ -17087,10 +17088,10 @@
         </is>
       </c>
       <c r="Y61" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z61" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA61" t="inlineStr">
         <is>
@@ -17201,10 +17202,10 @@
         </is>
       </c>
       <c r="Y62" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z62" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA62" t="inlineStr">
         <is>
@@ -17315,10 +17316,10 @@
         </is>
       </c>
       <c r="Y63" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z63" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA63" t="inlineStr">
         <is>
@@ -17429,10 +17430,10 @@
         </is>
       </c>
       <c r="Y64" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z64" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA64" t="inlineStr">
         <is>
@@ -17543,10 +17544,10 @@
         </is>
       </c>
       <c r="Y65" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z65" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA65" t="inlineStr">
         <is>
@@ -17657,10 +17658,10 @@
         </is>
       </c>
       <c r="Y66" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z66" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
@@ -17771,10 +17772,10 @@
         </is>
       </c>
       <c r="Y67" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z67" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA67" t="inlineStr">
         <is>
@@ -17885,10 +17886,10 @@
         </is>
       </c>
       <c r="Y68" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z68" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA68" t="inlineStr">
         <is>
@@ -17999,10 +18000,10 @@
         </is>
       </c>
       <c r="Y69" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z69" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
@@ -18113,10 +18114,10 @@
         </is>
       </c>
       <c r="Y70" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z70" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA70" t="inlineStr">
         <is>
@@ -18227,10 +18228,10 @@
         </is>
       </c>
       <c r="Y71" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z71" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA71" t="inlineStr">
         <is>
@@ -18341,10 +18342,10 @@
         </is>
       </c>
       <c r="Y72" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z72" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
@@ -18455,10 +18456,10 @@
         </is>
       </c>
       <c r="Y73" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z73" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
@@ -18569,10 +18570,10 @@
         </is>
       </c>
       <c r="Y74" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z74" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
@@ -18683,10 +18684,10 @@
         </is>
       </c>
       <c r="Y75" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z75" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
@@ -18797,10 +18798,10 @@
         </is>
       </c>
       <c r="Y76" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z76" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
@@ -18911,10 +18912,10 @@
         </is>
       </c>
       <c r="Y77" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z77" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
@@ -19025,10 +19026,10 @@
         </is>
       </c>
       <c r="Y78" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z78" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
@@ -19139,10 +19140,10 @@
         </is>
       </c>
       <c r="Y79" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z79" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA79" t="inlineStr">
         <is>
@@ -19253,10 +19254,10 @@
         </is>
       </c>
       <c r="Y80" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z80" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
@@ -19367,10 +19368,10 @@
         </is>
       </c>
       <c r="Y81" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z81" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA81" t="inlineStr">
         <is>
@@ -19481,10 +19482,10 @@
         </is>
       </c>
       <c r="Y82" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z82" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA82" t="inlineStr">
         <is>
@@ -19595,10 +19596,10 @@
         </is>
       </c>
       <c r="Y83" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z83" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA83" t="inlineStr">
         <is>
@@ -19709,10 +19710,10 @@
         </is>
       </c>
       <c r="Y84" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA84" t="inlineStr">
         <is>
@@ -19823,10 +19824,10 @@
         </is>
       </c>
       <c r="Y85" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z85" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA85" t="inlineStr">
         <is>
@@ -19937,10 +19938,10 @@
         </is>
       </c>
       <c r="Y86" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z86" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA86" t="inlineStr">
         <is>
@@ -20051,10 +20052,10 @@
         </is>
       </c>
       <c r="Y87" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z87" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
@@ -20165,10 +20166,10 @@
         </is>
       </c>
       <c r="Y88" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z88" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA88" t="inlineStr">
         <is>
@@ -20279,10 +20280,10 @@
         </is>
       </c>
       <c r="Y89" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z89" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA89" t="inlineStr">
         <is>
@@ -20393,10 +20394,10 @@
         </is>
       </c>
       <c r="Y90" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z90" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
@@ -20507,10 +20508,10 @@
         </is>
       </c>
       <c r="Y91" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z91" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
@@ -20621,10 +20622,10 @@
         </is>
       </c>
       <c r="Y92" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z92" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA92" t="inlineStr">
         <is>
@@ -20735,10 +20736,10 @@
         </is>
       </c>
       <c r="Y93" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z93" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
@@ -20849,10 +20850,10 @@
         </is>
       </c>
       <c r="Y94" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z94" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA94" t="inlineStr">
         <is>
@@ -20963,10 +20964,10 @@
         </is>
       </c>
       <c r="Y95" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z95" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
@@ -21077,10 +21078,10 @@
         </is>
       </c>
       <c r="Y96" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z96" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
@@ -21191,10 +21192,10 @@
         </is>
       </c>
       <c r="Y97" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z97" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA97" t="inlineStr">
         <is>
@@ -21305,10 +21306,10 @@
         </is>
       </c>
       <c r="Y98" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z98" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA98" t="inlineStr">
         <is>
@@ -21419,10 +21420,10 @@
         </is>
       </c>
       <c r="Y99" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z99" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA99" t="inlineStr">
         <is>
@@ -21533,10 +21534,10 @@
         </is>
       </c>
       <c r="Y100" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z100" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
@@ -21647,10 +21648,10 @@
         </is>
       </c>
       <c r="Y101" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z101" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
@@ -21761,10 +21762,10 @@
         </is>
       </c>
       <c r="Y102" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z102" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA102" t="inlineStr">
         <is>
@@ -21875,10 +21876,10 @@
         </is>
       </c>
       <c r="Y103" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z103" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA103" t="inlineStr">
         <is>
@@ -21989,10 +21990,10 @@
         </is>
       </c>
       <c r="Y104" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z104" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA104" t="inlineStr">
         <is>
@@ -22103,10 +22104,10 @@
         </is>
       </c>
       <c r="Y105" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z105" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA105" t="inlineStr">
         <is>
@@ -22217,10 +22218,10 @@
         </is>
       </c>
       <c r="Y106" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z106" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA106" t="inlineStr">
         <is>
@@ -22331,10 +22332,10 @@
         </is>
       </c>
       <c r="Y107" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z107" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA107" t="inlineStr">
         <is>
@@ -22445,10 +22446,10 @@
         </is>
       </c>
       <c r="Y108" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z108" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA108" t="inlineStr">
         <is>
@@ -22559,10 +22560,10 @@
         </is>
       </c>
       <c r="Y109" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z109" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA109" t="inlineStr">
         <is>
@@ -22673,10 +22674,10 @@
         </is>
       </c>
       <c r="Y110" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA110" t="inlineStr">
         <is>
@@ -22787,10 +22788,10 @@
         </is>
       </c>
       <c r="Y111" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z111" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA111" t="inlineStr">
         <is>
@@ -22901,10 +22902,10 @@
         </is>
       </c>
       <c r="Y112" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z112" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA112" t="inlineStr">
         <is>
@@ -23015,10 +23016,10 @@
         </is>
       </c>
       <c r="Y113" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z113" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA113" t="inlineStr">
         <is>
@@ -23129,10 +23130,10 @@
         </is>
       </c>
       <c r="Y114" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z114" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA114" t="inlineStr">
         <is>
@@ -23243,10 +23244,10 @@
         </is>
       </c>
       <c r="Y115" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z115" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA115" t="inlineStr">
         <is>
@@ -23357,10 +23358,10 @@
         </is>
       </c>
       <c r="Y116" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z116" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA116" t="inlineStr">
         <is>
@@ -23471,10 +23472,10 @@
         </is>
       </c>
       <c r="Y117" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z117" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA117" t="inlineStr">
         <is>
@@ -23585,10 +23586,10 @@
         </is>
       </c>
       <c r="Y118" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA118" t="inlineStr">
         <is>
@@ -23699,10 +23700,10 @@
         </is>
       </c>
       <c r="Y119" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z119" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA119" t="inlineStr">
         <is>
@@ -23813,10 +23814,10 @@
         </is>
       </c>
       <c r="Y120" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z120" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA120" t="inlineStr">
         <is>
@@ -23927,10 +23928,10 @@
         </is>
       </c>
       <c r="Y121" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z121" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA121" t="inlineStr">
         <is>
@@ -24041,10 +24042,10 @@
         </is>
       </c>
       <c r="Y122" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z122" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA122" t="inlineStr">
         <is>
@@ -24155,10 +24156,10 @@
         </is>
       </c>
       <c r="Y123" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA123" t="inlineStr">
         <is>
@@ -24269,10 +24270,10 @@
         </is>
       </c>
       <c r="Y124" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z124" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA124" t="inlineStr">
         <is>
@@ -24383,10 +24384,10 @@
         </is>
       </c>
       <c r="Y125" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z125" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA125" t="inlineStr">
         <is>
@@ -24497,10 +24498,10 @@
         </is>
       </c>
       <c r="Y126" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z126" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA126" t="inlineStr">
         <is>
@@ -24611,10 +24612,10 @@
         </is>
       </c>
       <c r="Y127" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z127" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
@@ -24725,10 +24726,10 @@
         </is>
       </c>
       <c r="Y128" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z128" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA128" t="inlineStr">
         <is>
@@ -24839,10 +24840,10 @@
         </is>
       </c>
       <c r="Y129" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z129" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA129" t="inlineStr">
         <is>
@@ -24953,10 +24954,10 @@
         </is>
       </c>
       <c r="Y130" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z130" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA130" t="inlineStr">
         <is>
@@ -25067,10 +25068,10 @@
         </is>
       </c>
       <c r="Y131" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z131" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
@@ -25181,10 +25182,10 @@
         </is>
       </c>
       <c r="Y132" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z132" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
@@ -25295,10 +25296,10 @@
         </is>
       </c>
       <c r="Y133" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z133" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
@@ -25409,10 +25410,10 @@
         </is>
       </c>
       <c r="Y134" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z134" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA134" t="inlineStr">
         <is>
@@ -25523,10 +25524,10 @@
         </is>
       </c>
       <c r="Y135" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z135" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA135" t="inlineStr">
         <is>
@@ -25637,10 +25638,10 @@
         </is>
       </c>
       <c r="Y136" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z136" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA136" t="inlineStr">
         <is>
@@ -25751,10 +25752,10 @@
         </is>
       </c>
       <c r="Y137" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z137" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA137" t="inlineStr">
         <is>
@@ -25865,10 +25866,10 @@
         </is>
       </c>
       <c r="Y138" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z138" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA138" t="inlineStr">
         <is>
@@ -25979,10 +25980,10 @@
         </is>
       </c>
       <c r="Y139" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z139" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA139" t="inlineStr">
         <is>
@@ -26093,10 +26094,10 @@
         </is>
       </c>
       <c r="Y140" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z140" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA140" t="inlineStr">
         <is>
@@ -26207,10 +26208,10 @@
         </is>
       </c>
       <c r="Y141" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z141" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA141" t="inlineStr">
         <is>
@@ -26321,10 +26322,10 @@
         </is>
       </c>
       <c r="Y142" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z142" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA142" t="inlineStr">
         <is>
@@ -26435,10 +26436,10 @@
         </is>
       </c>
       <c r="Y143" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z143" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA143" t="inlineStr">
         <is>
@@ -26549,10 +26550,10 @@
         </is>
       </c>
       <c r="Y144" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z144" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA144" t="inlineStr">
         <is>
@@ -26663,10 +26664,10 @@
         </is>
       </c>
       <c r="Y145" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z145" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA145" t="inlineStr">
         <is>
@@ -26777,10 +26778,10 @@
         </is>
       </c>
       <c r="Y146" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z146" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA146" t="inlineStr">
         <is>
@@ -26891,10 +26892,10 @@
         </is>
       </c>
       <c r="Y147" t="n">
-        <v>42</v>
+        <v>727.4400000000001</v>
       </c>
       <c r="Z147" t="n">
-        <v>0.08</v>
+        <v>1.3</v>
       </c>
       <c r="AA147" t="inlineStr">
         <is>
@@ -26902,6 +26903,7 @@
         </is>
       </c>
     </row>
+    <row r="148"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -26913,7 +26915,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:AW104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27151,10 +27153,10 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
@@ -27260,10 +27262,10 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
@@ -27369,10 +27371,10 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -27478,10 +27480,10 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
@@ -27587,10 +27589,10 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
@@ -27696,10 +27698,10 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
@@ -27805,10 +27807,10 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
@@ -27914,10 +27916,10 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
@@ -28023,10 +28025,10 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
@@ -28132,10 +28134,10 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
@@ -28241,10 +28243,10 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
@@ -28350,10 +28352,10 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
@@ -28459,10 +28461,10 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -28568,10 +28570,10 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -28677,10 +28679,10 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -28786,10 +28788,10 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -28892,10 +28894,10 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -28998,10 +29000,10 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -29104,10 +29106,10 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -29213,10 +29215,10 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -29322,10 +29324,10 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
@@ -29431,10 +29433,10 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -29540,10 +29542,10 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -29649,10 +29651,10 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -29758,10 +29760,10 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -29864,10 +29866,10 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
@@ -29970,10 +29972,10 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
@@ -30076,10 +30078,10 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
@@ -30177,10 +30179,10 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
@@ -30278,10 +30280,10 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
@@ -30379,10 +30381,10 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
@@ -30480,10 +30482,10 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
@@ -30581,10 +30583,10 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
@@ -30682,10 +30684,10 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
@@ -30788,10 +30790,10 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
@@ -30894,10 +30896,10 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
@@ -31000,10 +31002,10 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
@@ -31106,10 +31108,10 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
@@ -31212,10 +31214,10 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
@@ -31318,10 +31320,10 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
@@ -31419,10 +31421,10 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
@@ -31520,10 +31522,10 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
@@ -31621,10 +31623,10 @@
         </is>
       </c>
       <c r="X44" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
@@ -31722,10 +31724,10 @@
         </is>
       </c>
       <c r="X45" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
@@ -31823,10 +31825,10 @@
         </is>
       </c>
       <c r="X46" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
@@ -31924,10 +31926,10 @@
         </is>
       </c>
       <c r="X47" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
@@ -32025,10 +32027,10 @@
         </is>
       </c>
       <c r="X48" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
@@ -32126,10 +32128,10 @@
         </is>
       </c>
       <c r="X49" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z49" t="inlineStr">
         <is>
@@ -32227,10 +32229,10 @@
         </is>
       </c>
       <c r="X50" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z50" t="inlineStr">
         <is>
@@ -32333,10 +32335,10 @@
         </is>
       </c>
       <c r="X51" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z51" t="inlineStr">
         <is>
@@ -32439,10 +32441,10 @@
         </is>
       </c>
       <c r="X52" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
@@ -32545,10 +32547,10 @@
         </is>
       </c>
       <c r="X53" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
@@ -32651,10 +32653,10 @@
         </is>
       </c>
       <c r="X54" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
@@ -32757,10 +32759,10 @@
         </is>
       </c>
       <c r="X55" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
@@ -32863,10 +32865,10 @@
         </is>
       </c>
       <c r="X56" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
@@ -32964,10 +32966,10 @@
         </is>
       </c>
       <c r="X57" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y57" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z57" t="inlineStr">
         <is>
@@ -33065,10 +33067,10 @@
         </is>
       </c>
       <c r="X58" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y58" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z58" t="inlineStr">
         <is>
@@ -33166,10 +33168,10 @@
         </is>
       </c>
       <c r="X59" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z59" t="inlineStr">
         <is>
@@ -33267,10 +33269,10 @@
         </is>
       </c>
       <c r="X60" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y60" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z60" t="inlineStr">
         <is>
@@ -33368,10 +33370,10 @@
         </is>
       </c>
       <c r="X61" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y61" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z61" t="inlineStr">
         <is>
@@ -33469,10 +33471,10 @@
         </is>
       </c>
       <c r="X62" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y62" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z62" t="inlineStr">
         <is>
@@ -33575,10 +33577,10 @@
         </is>
       </c>
       <c r="X63" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y63" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z63" t="inlineStr">
         <is>
@@ -33681,10 +33683,10 @@
         </is>
       </c>
       <c r="X64" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z64" t="inlineStr">
         <is>
@@ -33787,10 +33789,10 @@
         </is>
       </c>
       <c r="X65" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y65" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z65" t="inlineStr">
         <is>
@@ -33893,10 +33895,10 @@
         </is>
       </c>
       <c r="X66" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y66" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z66" t="inlineStr">
         <is>
@@ -33999,10 +34001,10 @@
         </is>
       </c>
       <c r="X67" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y67" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z67" t="inlineStr">
         <is>
@@ -34105,10 +34107,10 @@
         </is>
       </c>
       <c r="X68" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z68" t="inlineStr">
         <is>
@@ -34206,10 +34208,10 @@
         </is>
       </c>
       <c r="X69" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y69" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z69" t="inlineStr">
         <is>
@@ -34307,10 +34309,10 @@
         </is>
       </c>
       <c r="X70" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y70" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z70" t="inlineStr">
         <is>
@@ -34416,10 +34418,10 @@
         </is>
       </c>
       <c r="X71" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y71" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z71" t="inlineStr">
         <is>
@@ -34525,10 +34527,10 @@
         </is>
       </c>
       <c r="X72" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y72" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z72" t="inlineStr">
         <is>
@@ -34634,10 +34636,10 @@
         </is>
       </c>
       <c r="X73" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y73" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z73" t="inlineStr">
         <is>
@@ -34743,10 +34745,10 @@
         </is>
       </c>
       <c r="X74" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z74" t="inlineStr">
         <is>
@@ -34847,10 +34849,10 @@
         </is>
       </c>
       <c r="X75" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y75" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z75" t="inlineStr">
         <is>
@@ -34951,10 +34953,10 @@
         </is>
       </c>
       <c r="X76" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y76" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z76" t="inlineStr">
         <is>
@@ -35055,10 +35057,10 @@
         </is>
       </c>
       <c r="X77" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y77" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z77" t="inlineStr">
         <is>
@@ -35159,10 +35161,10 @@
         </is>
       </c>
       <c r="X78" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y78" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z78" t="inlineStr">
         <is>
@@ -35263,10 +35265,10 @@
         </is>
       </c>
       <c r="X79" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y79" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z79" t="inlineStr">
         <is>
@@ -35367,10 +35369,10 @@
         </is>
       </c>
       <c r="X80" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y80" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z80" t="inlineStr">
         <is>
@@ -35476,10 +35478,10 @@
         </is>
       </c>
       <c r="X81" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y81" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z81" t="inlineStr">
         <is>
@@ -35585,10 +35587,10 @@
         </is>
       </c>
       <c r="X82" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y82" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z82" t="inlineStr">
         <is>
@@ -35694,10 +35696,10 @@
         </is>
       </c>
       <c r="X83" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y83" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z83" t="inlineStr">
         <is>
@@ -35803,10 +35805,10 @@
         </is>
       </c>
       <c r="X84" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z84" t="inlineStr">
         <is>
@@ -35912,10 +35914,10 @@
         </is>
       </c>
       <c r="X85" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y85" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z85" t="inlineStr">
         <is>
@@ -36021,10 +36023,10 @@
         </is>
       </c>
       <c r="X86" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y86" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z86" t="inlineStr">
         <is>
@@ -36130,10 +36132,10 @@
         </is>
       </c>
       <c r="X87" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y87" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z87" t="inlineStr">
         <is>
@@ -36239,10 +36241,10 @@
         </is>
       </c>
       <c r="X88" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y88" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z88" t="inlineStr">
         <is>
@@ -36348,10 +36350,10 @@
         </is>
       </c>
       <c r="X89" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y89" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z89" t="inlineStr">
         <is>
@@ -36457,10 +36459,10 @@
         </is>
       </c>
       <c r="X90" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y90" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z90" t="inlineStr">
         <is>
@@ -36566,10 +36568,10 @@
         </is>
       </c>
       <c r="X91" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y91" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z91" t="inlineStr">
         <is>
@@ -36675,10 +36677,10 @@
         </is>
       </c>
       <c r="X92" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y92" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z92" t="inlineStr">
         <is>
@@ -36784,10 +36786,10 @@
         </is>
       </c>
       <c r="X93" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y93" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z93" t="inlineStr">
         <is>
@@ -36893,10 +36895,10 @@
         </is>
       </c>
       <c r="X94" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y94" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z94" t="inlineStr">
         <is>
@@ -37002,10 +37004,10 @@
         </is>
       </c>
       <c r="X95" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y95" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z95" t="inlineStr">
         <is>
@@ -37100,10 +37102,10 @@
         </is>
       </c>
       <c r="X96" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y96" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z96" t="inlineStr">
         <is>
@@ -37203,10 +37205,10 @@
         </is>
       </c>
       <c r="X97" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y97" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z97" t="inlineStr">
         <is>
@@ -37306,10 +37308,10 @@
         </is>
       </c>
       <c r="X98" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y98" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z98" t="inlineStr">
         <is>
@@ -37409,10 +37411,10 @@
         </is>
       </c>
       <c r="X99" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y99" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z99" t="inlineStr">
         <is>
@@ -37512,10 +37514,10 @@
         </is>
       </c>
       <c r="X100" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y100" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z100" t="inlineStr">
         <is>
@@ -37615,10 +37617,10 @@
         </is>
       </c>
       <c r="X101" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z101" t="inlineStr">
         <is>
@@ -37718,10 +37720,10 @@
         </is>
       </c>
       <c r="X102" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z102" t="inlineStr">
         <is>
@@ -37816,10 +37818,10 @@
         </is>
       </c>
       <c r="X103" t="n">
-        <v>48</v>
+        <v>623.52</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="Z103" t="inlineStr">
         <is>
@@ -64041,7 +64043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:AW44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -64274,10 +64276,10 @@
         </is>
       </c>
       <c r="X2" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
@@ -64373,10 +64375,10 @@
         </is>
       </c>
       <c r="X3" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
@@ -64472,10 +64474,10 @@
         </is>
       </c>
       <c r="X4" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
@@ -64571,10 +64573,10 @@
         </is>
       </c>
       <c r="X5" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
@@ -64670,10 +64672,10 @@
         </is>
       </c>
       <c r="X6" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
@@ -64769,10 +64771,10 @@
         </is>
       </c>
       <c r="X7" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
@@ -64868,10 +64870,10 @@
         </is>
       </c>
       <c r="X8" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
@@ -64967,10 +64969,10 @@
         </is>
       </c>
       <c r="X9" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z9" t="inlineStr">
         <is>
@@ -65066,10 +65068,10 @@
         </is>
       </c>
       <c r="X10" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z10" t="inlineStr">
         <is>
@@ -65165,10 +65167,10 @@
         </is>
       </c>
       <c r="X11" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
@@ -65264,10 +65266,10 @@
         </is>
       </c>
       <c r="X12" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z12" t="inlineStr">
         <is>
@@ -65363,10 +65365,10 @@
         </is>
       </c>
       <c r="X13" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z13" t="inlineStr">
         <is>
@@ -65462,10 +65464,10 @@
         </is>
       </c>
       <c r="X14" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
@@ -65561,10 +65563,10 @@
         </is>
       </c>
       <c r="X15" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z15" t="inlineStr">
         <is>
@@ -65660,10 +65662,10 @@
         </is>
       </c>
       <c r="X16" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z16" t="inlineStr">
         <is>
@@ -65759,10 +65761,10 @@
         </is>
       </c>
       <c r="X17" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z17" t="inlineStr">
         <is>
@@ -65863,10 +65865,10 @@
         </is>
       </c>
       <c r="X18" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
@@ -65962,10 +65964,10 @@
         </is>
       </c>
       <c r="X19" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
@@ -66066,10 +66068,10 @@
         </is>
       </c>
       <c r="X20" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
@@ -66165,10 +66167,10 @@
         </is>
       </c>
       <c r="X21" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
@@ -66269,10 +66271,10 @@
         </is>
       </c>
       <c r="X22" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
@@ -66368,10 +66370,10 @@
         </is>
       </c>
       <c r="X23" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
@@ -66472,10 +66474,10 @@
         </is>
       </c>
       <c r="X24" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y24" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
@@ -66571,10 +66573,10 @@
         </is>
       </c>
       <c r="X25" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
@@ -66675,10 +66677,10 @@
         </is>
       </c>
       <c r="X26" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
@@ -66774,10 +66776,10 @@
         </is>
       </c>
       <c r="X27" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
@@ -66878,10 +66880,10 @@
         </is>
       </c>
       <c r="X28" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
@@ -66977,10 +66979,10 @@
         </is>
       </c>
       <c r="X29" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
@@ -67076,10 +67078,10 @@
         </is>
       </c>
       <c r="X30" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
@@ -67175,10 +67177,10 @@
         </is>
       </c>
       <c r="X31" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
@@ -67279,10 +67281,10 @@
         </is>
       </c>
       <c r="X32" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
@@ -67383,10 +67385,10 @@
         </is>
       </c>
       <c r="X33" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y33" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
@@ -67487,10 +67489,10 @@
         </is>
       </c>
       <c r="X34" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
@@ -67591,10 +67593,10 @@
         </is>
       </c>
       <c r="X35" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
@@ -67695,10 +67697,10 @@
         </is>
       </c>
       <c r="X36" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
@@ -67799,10 +67801,10 @@
         </is>
       </c>
       <c r="X37" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
@@ -67898,10 +67900,10 @@
         </is>
       </c>
       <c r="X38" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
@@ -67997,10 +67999,10 @@
         </is>
       </c>
       <c r="X39" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
@@ -68096,10 +68098,10 @@
         </is>
       </c>
       <c r="X40" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
@@ -68195,10 +68197,10 @@
         </is>
       </c>
       <c r="X41" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
@@ -68294,10 +68296,10 @@
         </is>
       </c>
       <c r="X42" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
@@ -68393,10 +68395,10 @@
         </is>
       </c>
       <c r="X43" t="n">
-        <v>116</v>
+        <v>1437.56</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.28</v>
+        <v>3.46</v>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
@@ -68404,6 +68406,7 @@
         </is>
       </c>
     </row>
+    <row r="44"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
+++ b/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
@@ -44368,7 +44368,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -44548,7 +44548,7 @@
         <v>155.88</v>
       </c>
       <c r="R2" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -44618,7 +44618,7 @@
         <v>155.88</v>
       </c>
       <c r="R3" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -44688,7 +44688,7 @@
         <v>155.88</v>
       </c>
       <c r="R4" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -44758,7 +44758,7 @@
         <v>155.88</v>
       </c>
       <c r="R5" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -44828,7 +44828,7 @@
         <v>155.88</v>
       </c>
       <c r="R6" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -44898,7 +44898,7 @@
         <v>155.88</v>
       </c>
       <c r="R7" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -44968,7 +44968,7 @@
         <v>155.88</v>
       </c>
       <c r="R8" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -45038,7 +45038,7 @@
         <v>155.88</v>
       </c>
       <c r="R9" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -45108,7 +45108,7 @@
         <v>155.88</v>
       </c>
       <c r="R10" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -45178,7 +45178,7 @@
         <v>155.88</v>
       </c>
       <c r="R11" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -45248,7 +45248,7 @@
         <v>155.88</v>
       </c>
       <c r="R12" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -45318,7 +45318,7 @@
         <v>155.88</v>
       </c>
       <c r="R13" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -45388,7 +45388,7 @@
         <v>155.88</v>
       </c>
       <c r="R14" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -45458,7 +45458,7 @@
         <v>155.88</v>
       </c>
       <c r="R15" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -45528,7 +45528,7 @@
         <v>155.88</v>
       </c>
       <c r="R16" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -45598,7 +45598,7 @@
         <v>155.88</v>
       </c>
       <c r="R17" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -45668,7 +45668,7 @@
         <v>155.88</v>
       </c>
       <c r="R18" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -45738,7 +45738,7 @@
         <v>155.88</v>
       </c>
       <c r="R19" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -45808,7 +45808,7 @@
         <v>155.88</v>
       </c>
       <c r="R20" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -45878,7 +45878,7 @@
         <v>155.88</v>
       </c>
       <c r="R21" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -45948,7 +45948,7 @@
         <v>155.88</v>
       </c>
       <c r="R22" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -46018,7 +46018,7 @@
         <v>155.88</v>
       </c>
       <c r="R23" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -46088,7 +46088,7 @@
         <v>155.88</v>
       </c>
       <c r="R24" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -46158,7 +46158,7 @@
         <v>155.88</v>
       </c>
       <c r="R25" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -46228,7 +46228,7 @@
         <v>155.88</v>
       </c>
       <c r="R26" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -46298,7 +46298,7 @@
         <v>155.88</v>
       </c>
       <c r="R27" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -46368,7 +46368,7 @@
         <v>155.88</v>
       </c>
       <c r="R28" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -46438,7 +46438,7 @@
         <v>155.88</v>
       </c>
       <c r="R29" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -46508,7 +46508,7 @@
         <v>155.88</v>
       </c>
       <c r="R30" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -46578,7 +46578,7 @@
         <v>155.88</v>
       </c>
       <c r="R31" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -46648,7 +46648,7 @@
         <v>155.88</v>
       </c>
       <c r="R32" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -46718,7 +46718,7 @@
         <v>155.88</v>
       </c>
       <c r="R33" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -46783,7 +46783,7 @@
         <v>155.88</v>
       </c>
       <c r="R34" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -46848,7 +46848,7 @@
         <v>155.88</v>
       </c>
       <c r="R35" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -46913,7 +46913,7 @@
         <v>155.88</v>
       </c>
       <c r="R36" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -46978,7 +46978,7 @@
         <v>155.88</v>
       </c>
       <c r="R37" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -47048,7 +47048,7 @@
         <v>155.88</v>
       </c>
       <c r="R38" t="n">
-        <v>0.866</v>
+        <v>0.87</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -47068,7 +47068,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW49"/>
+  <dimension ref="A1:S49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -47245,10 +47245,8 @@
       <c r="Q2" t="n">
         <v>138.56</v>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R2" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -47315,10 +47313,8 @@
       <c r="Q3" t="n">
         <v>138.56</v>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R3" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -47385,10 +47381,8 @@
       <c r="Q4" t="n">
         <v>138.56</v>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R4" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -47455,10 +47449,8 @@
       <c r="Q5" t="n">
         <v>138.56</v>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R5" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -47525,10 +47517,8 @@
       <c r="Q6" t="n">
         <v>138.56</v>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R6" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -47595,10 +47585,8 @@
       <c r="Q7" t="n">
         <v>138.56</v>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R7" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -47665,10 +47653,8 @@
       <c r="Q8" t="n">
         <v>138.56</v>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R8" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -47735,10 +47721,8 @@
       <c r="Q9" t="n">
         <v>138.56</v>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R9" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -47805,10 +47789,8 @@
       <c r="Q10" t="n">
         <v>138.56</v>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R10" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -47875,10 +47857,8 @@
       <c r="Q11" t="n">
         <v>138.56</v>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R11" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -47945,10 +47925,8 @@
       <c r="Q12" t="n">
         <v>138.56</v>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R12" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -48012,10 +47990,8 @@
       <c r="Q13" t="n">
         <v>138.56</v>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R13" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -48079,10 +48055,8 @@
       <c r="Q14" t="n">
         <v>138.56</v>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R14" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -48146,10 +48120,8 @@
       <c r="Q15" t="n">
         <v>138.56</v>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R15" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -48213,10 +48185,8 @@
       <c r="Q16" t="n">
         <v>138.56</v>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R16" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -48280,10 +48250,8 @@
       <c r="Q17" t="n">
         <v>138.56</v>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R17" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -48347,10 +48315,8 @@
       <c r="Q18" t="n">
         <v>138.56</v>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R18" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -48414,10 +48380,8 @@
       <c r="Q19" t="n">
         <v>138.56</v>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R19" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -48481,10 +48445,8 @@
       <c r="Q20" t="n">
         <v>138.56</v>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R20" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -48548,10 +48510,8 @@
       <c r="Q21" t="n">
         <v>138.56</v>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R21" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -48615,10 +48575,8 @@
       <c r="Q22" t="n">
         <v>138.56</v>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R22" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -48682,10 +48640,8 @@
       <c r="Q23" t="n">
         <v>138.56</v>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R23" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -48749,10 +48705,8 @@
       <c r="Q24" t="n">
         <v>138.56</v>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R24" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -48816,10 +48770,8 @@
       <c r="Q25" t="n">
         <v>138.56</v>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R25" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -48883,10 +48835,8 @@
       <c r="Q26" t="n">
         <v>138.56</v>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R26" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -48950,10 +48900,8 @@
       <c r="Q27" t="n">
         <v>138.56</v>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R27" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -49017,10 +48965,8 @@
       <c r="Q28" t="n">
         <v>138.56</v>
       </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R28" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -49084,10 +49030,8 @@
       <c r="Q29" t="n">
         <v>138.56</v>
       </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R29" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -49151,10 +49095,8 @@
       <c r="Q30" t="n">
         <v>138.56</v>
       </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R30" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -49218,10 +49160,8 @@
       <c r="Q31" t="n">
         <v>138.56</v>
       </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R31" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -49285,10 +49225,8 @@
       <c r="Q32" t="n">
         <v>138.56</v>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R32" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -49352,10 +49290,8 @@
       <c r="Q33" t="n">
         <v>138.56</v>
       </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R33" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -49419,10 +49355,8 @@
       <c r="Q34" t="n">
         <v>138.56</v>
       </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R34" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -49486,10 +49420,8 @@
       <c r="Q35" t="n">
         <v>138.56</v>
       </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R35" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -49553,10 +49485,8 @@
       <c r="Q36" t="n">
         <v>138.56</v>
       </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R36" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -49620,10 +49550,8 @@
       <c r="Q37" t="n">
         <v>138.56</v>
       </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R37" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -49687,10 +49615,8 @@
       <c r="Q38" t="n">
         <v>138.56</v>
       </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R38" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -49754,10 +49680,8 @@
       <c r="Q39" t="n">
         <v>138.56</v>
       </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R39" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -49821,10 +49745,8 @@
       <c r="Q40" t="n">
         <v>138.56</v>
       </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R40" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -49888,10 +49810,8 @@
       <c r="Q41" t="n">
         <v>138.56</v>
       </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R41" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -49955,10 +49875,8 @@
       <c r="Q42" t="n">
         <v>138.56</v>
       </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R42" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -50022,10 +49940,8 @@
       <c r="Q43" t="n">
         <v>138.56</v>
       </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R43" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -50089,10 +50005,8 @@
       <c r="Q44" t="n">
         <v>138.56</v>
       </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R44" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -50156,10 +50070,8 @@
       <c r="Q45" t="n">
         <v>138.56</v>
       </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R45" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -50223,10 +50135,8 @@
       <c r="Q46" t="n">
         <v>138.56</v>
       </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R46" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -50290,10 +50200,8 @@
       <c r="Q47" t="n">
         <v>138.56</v>
       </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R47" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -50357,10 +50265,8 @@
       <c r="Q48" t="n">
         <v>138.56</v>
       </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>TBD (units unknown)</t>
-        </is>
+      <c r="R48" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -50380,7 +50286,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW205"/>
+  <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -50562,7 +50468,7 @@
         <v>600.63162</v>
       </c>
       <c r="R2" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -50634,7 +50540,7 @@
         <v>600.63162</v>
       </c>
       <c r="R3" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -50706,7 +50612,7 @@
         <v>600.63162</v>
       </c>
       <c r="R4" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -50778,7 +50684,7 @@
         <v>600.63162</v>
       </c>
       <c r="R5" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -50850,7 +50756,7 @@
         <v>600.63162</v>
       </c>
       <c r="R6" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -50922,7 +50828,7 @@
         <v>600.63162</v>
       </c>
       <c r="R7" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -50994,7 +50900,7 @@
         <v>600.63162</v>
       </c>
       <c r="R8" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -51066,7 +50972,7 @@
         <v>600.63162</v>
       </c>
       <c r="R9" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -51138,7 +51044,7 @@
         <v>600.63162</v>
       </c>
       <c r="R10" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -51210,7 +51116,7 @@
         <v>600.63162</v>
       </c>
       <c r="R11" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -51282,7 +51188,7 @@
         <v>600.63162</v>
       </c>
       <c r="R12" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -51351,7 +51257,7 @@
         <v>600.63162</v>
       </c>
       <c r="R13" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -51420,7 +51326,7 @@
         <v>600.63162</v>
       </c>
       <c r="R14" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -51489,7 +51395,7 @@
         <v>600.63162</v>
       </c>
       <c r="R15" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -51558,7 +51464,7 @@
         <v>600.63162</v>
       </c>
       <c r="R16" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -51627,7 +51533,7 @@
         <v>600.63162</v>
       </c>
       <c r="R17" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -51696,7 +51602,7 @@
         <v>600.63162</v>
       </c>
       <c r="R18" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -51765,7 +51671,7 @@
         <v>600.63162</v>
       </c>
       <c r="R19" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -51834,7 +51740,7 @@
         <v>600.63162</v>
       </c>
       <c r="R20" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -51903,7 +51809,7 @@
         <v>600.63162</v>
       </c>
       <c r="R21" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -51972,7 +51878,7 @@
         <v>600.63162</v>
       </c>
       <c r="R22" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -52041,7 +51947,7 @@
         <v>600.63162</v>
       </c>
       <c r="R23" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -52110,7 +52016,7 @@
         <v>600.63162</v>
       </c>
       <c r="R24" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -52179,7 +52085,7 @@
         <v>600.63162</v>
       </c>
       <c r="R25" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -52248,7 +52154,7 @@
         <v>600.63162</v>
       </c>
       <c r="R26" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -52317,7 +52223,7 @@
         <v>600.63162</v>
       </c>
       <c r="R27" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -52386,7 +52292,7 @@
         <v>600.63162</v>
       </c>
       <c r="R28" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -52455,7 +52361,7 @@
         <v>600.63162</v>
       </c>
       <c r="R29" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
@@ -52524,7 +52430,7 @@
         <v>600.63162</v>
       </c>
       <c r="R30" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -52593,7 +52499,7 @@
         <v>600.63162</v>
       </c>
       <c r="R31" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -52662,7 +52568,7 @@
         <v>600.63162</v>
       </c>
       <c r="R32" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -52731,7 +52637,7 @@
         <v>600.63162</v>
       </c>
       <c r="R33" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -52800,7 +52706,7 @@
         <v>600.63162</v>
       </c>
       <c r="R34" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -52869,7 +52775,7 @@
         <v>600.63162</v>
       </c>
       <c r="R35" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -52938,7 +52844,7 @@
         <v>600.63162</v>
       </c>
       <c r="R36" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -53007,7 +52913,7 @@
         <v>600.63162</v>
       </c>
       <c r="R37" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
@@ -53076,7 +52982,7 @@
         <v>600.63162</v>
       </c>
       <c r="R38" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -53145,7 +53051,7 @@
         <v>600.63162</v>
       </c>
       <c r="R39" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -53214,7 +53120,7 @@
         <v>600.63162</v>
       </c>
       <c r="R40" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -53283,7 +53189,7 @@
         <v>600.63162</v>
       </c>
       <c r="R41" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -53352,7 +53258,7 @@
         <v>600.63162</v>
       </c>
       <c r="R42" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -53421,7 +53327,7 @@
         <v>600.63162</v>
       </c>
       <c r="R43" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -53490,7 +53396,7 @@
         <v>600.63162</v>
       </c>
       <c r="R44" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -53559,7 +53465,7 @@
         <v>600.63162</v>
       </c>
       <c r="R45" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -53628,7 +53534,7 @@
         <v>600.63162</v>
       </c>
       <c r="R46" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -53697,7 +53603,7 @@
         <v>600.63162</v>
       </c>
       <c r="R47" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -53766,7 +53672,7 @@
         <v>600.63162</v>
       </c>
       <c r="R48" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
@@ -53835,7 +53741,7 @@
         <v>600.63162</v>
       </c>
       <c r="R49" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
@@ -53904,7 +53810,7 @@
         <v>600.63162</v>
       </c>
       <c r="R50" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
@@ -53973,7 +53879,7 @@
         <v>600.63162</v>
       </c>
       <c r="R51" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -54042,7 +53948,7 @@
         <v>600.63162</v>
       </c>
       <c r="R52" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -54111,7 +54017,7 @@
         <v>600.63162</v>
       </c>
       <c r="R53" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
@@ -54180,7 +54086,7 @@
         <v>600.63162</v>
       </c>
       <c r="R54" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
@@ -54249,7 +54155,7 @@
         <v>600.63162</v>
       </c>
       <c r="R55" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -54318,7 +54224,7 @@
         <v>600.63162</v>
       </c>
       <c r="R56" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -54387,7 +54293,7 @@
         <v>600.63162</v>
       </c>
       <c r="R57" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
@@ -54456,7 +54362,7 @@
         <v>600.63162</v>
       </c>
       <c r="R58" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -54525,7 +54431,7 @@
         <v>600.63162</v>
       </c>
       <c r="R59" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -54594,7 +54500,7 @@
         <v>600.63162</v>
       </c>
       <c r="R60" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
@@ -54663,7 +54569,7 @@
         <v>600.63162</v>
       </c>
       <c r="R61" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -54732,7 +54638,7 @@
         <v>600.63162</v>
       </c>
       <c r="R62" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -54801,7 +54707,7 @@
         <v>600.63162</v>
       </c>
       <c r="R63" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
@@ -54870,7 +54776,7 @@
         <v>600.63162</v>
       </c>
       <c r="R64" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
@@ -54939,7 +54845,7 @@
         <v>600.63162</v>
       </c>
       <c r="R65" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
@@ -55008,7 +54914,7 @@
         <v>600.63162</v>
       </c>
       <c r="R66" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S66" t="inlineStr">
         <is>
@@ -55077,7 +54983,7 @@
         <v>600.63162</v>
       </c>
       <c r="R67" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S67" t="inlineStr">
         <is>
@@ -55146,7 +55052,7 @@
         <v>600.63162</v>
       </c>
       <c r="R68" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -55215,7 +55121,7 @@
         <v>600.63162</v>
       </c>
       <c r="R69" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -55284,7 +55190,7 @@
         <v>600.63162</v>
       </c>
       <c r="R70" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S70" t="inlineStr">
         <is>
@@ -55353,7 +55259,7 @@
         <v>600.63162</v>
       </c>
       <c r="R71" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -55422,7 +55328,7 @@
         <v>600.63162</v>
       </c>
       <c r="R72" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -55491,7 +55397,7 @@
         <v>600.63162</v>
       </c>
       <c r="R73" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -55560,7 +55466,7 @@
         <v>600.63162</v>
       </c>
       <c r="R74" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -55629,7 +55535,7 @@
         <v>600.63162</v>
       </c>
       <c r="R75" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -55698,7 +55604,7 @@
         <v>600.63162</v>
       </c>
       <c r="R76" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -55767,7 +55673,7 @@
         <v>600.63162</v>
       </c>
       <c r="R77" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -55836,7 +55742,7 @@
         <v>600.63162</v>
       </c>
       <c r="R78" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -55905,7 +55811,7 @@
         <v>600.63162</v>
       </c>
       <c r="R79" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -55974,7 +55880,7 @@
         <v>600.63162</v>
       </c>
       <c r="R80" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -56043,7 +55949,7 @@
         <v>600.63162</v>
       </c>
       <c r="R81" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -56112,7 +56018,7 @@
         <v>600.63162</v>
       </c>
       <c r="R82" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -56181,7 +56087,7 @@
         <v>600.63162</v>
       </c>
       <c r="R83" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -56250,7 +56156,7 @@
         <v>600.63162</v>
       </c>
       <c r="R84" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -56319,7 +56225,7 @@
         <v>600.63162</v>
       </c>
       <c r="R85" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -56388,7 +56294,7 @@
         <v>600.63162</v>
       </c>
       <c r="R86" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -56457,7 +56363,7 @@
         <v>600.63162</v>
       </c>
       <c r="R87" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -56526,7 +56432,7 @@
         <v>600.63162</v>
       </c>
       <c r="R88" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -56595,7 +56501,7 @@
         <v>600.63162</v>
       </c>
       <c r="R89" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -56664,7 +56570,7 @@
         <v>600.63162</v>
       </c>
       <c r="R90" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -56733,7 +56639,7 @@
         <v>600.63162</v>
       </c>
       <c r="R91" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -56802,7 +56708,7 @@
         <v>600.63162</v>
       </c>
       <c r="R92" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -56871,7 +56777,7 @@
         <v>600.63162</v>
       </c>
       <c r="R93" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -56940,7 +56846,7 @@
         <v>600.63162</v>
       </c>
       <c r="R94" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -57009,7 +56915,7 @@
         <v>600.63162</v>
       </c>
       <c r="R95" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -57078,7 +56984,7 @@
         <v>600.63162</v>
       </c>
       <c r="R96" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -57147,7 +57053,7 @@
         <v>600.63162</v>
       </c>
       <c r="R97" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -57216,7 +57122,7 @@
         <v>600.63162</v>
       </c>
       <c r="R98" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -57285,7 +57191,7 @@
         <v>600.63162</v>
       </c>
       <c r="R99" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -57354,7 +57260,7 @@
         <v>600.63162</v>
       </c>
       <c r="R100" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -57423,7 +57329,7 @@
         <v>600.63162</v>
       </c>
       <c r="R101" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -57492,7 +57398,7 @@
         <v>600.63162</v>
       </c>
       <c r="R102" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -57561,7 +57467,7 @@
         <v>600.63162</v>
       </c>
       <c r="R103" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -57630,7 +57536,7 @@
         <v>600.63162</v>
       </c>
       <c r="R104" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -57699,7 +57605,7 @@
         <v>600.63162</v>
       </c>
       <c r="R105" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -57768,7 +57674,7 @@
         <v>600.63162</v>
       </c>
       <c r="R106" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
@@ -57837,7 +57743,7 @@
         <v>600.63162</v>
       </c>
       <c r="R107" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
@@ -57906,7 +57812,7 @@
         <v>600.63162</v>
       </c>
       <c r="R108" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -57975,7 +57881,7 @@
         <v>600.63162</v>
       </c>
       <c r="R109" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -58044,7 +57950,7 @@
         <v>600.63162</v>
       </c>
       <c r="R110" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
@@ -58113,7 +58019,7 @@
         <v>600.63162</v>
       </c>
       <c r="R111" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S111" t="inlineStr">
         <is>
@@ -58182,7 +58088,7 @@
         <v>600.63162</v>
       </c>
       <c r="R112" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -58251,7 +58157,7 @@
         <v>600.63162</v>
       </c>
       <c r="R113" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -58320,7 +58226,7 @@
         <v>600.63162</v>
       </c>
       <c r="R114" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -58389,7 +58295,7 @@
         <v>600.63162</v>
       </c>
       <c r="R115" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -58458,7 +58364,7 @@
         <v>600.63162</v>
       </c>
       <c r="R116" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -58527,7 +58433,7 @@
         <v>600.63162</v>
       </c>
       <c r="R117" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -58596,7 +58502,7 @@
         <v>600.63162</v>
       </c>
       <c r="R118" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -58665,7 +58571,7 @@
         <v>600.63162</v>
       </c>
       <c r="R119" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -58734,7 +58640,7 @@
         <v>600.63162</v>
       </c>
       <c r="R120" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
@@ -58803,7 +58709,7 @@
         <v>600.63162</v>
       </c>
       <c r="R121" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
@@ -58872,7 +58778,7 @@
         <v>600.63162</v>
       </c>
       <c r="R122" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S122" t="inlineStr">
         <is>
@@ -58941,7 +58847,7 @@
         <v>600.63162</v>
       </c>
       <c r="R123" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -59010,7 +58916,7 @@
         <v>600.63162</v>
       </c>
       <c r="R124" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -59079,7 +58985,7 @@
         <v>600.63162</v>
       </c>
       <c r="R125" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -59148,7 +59054,7 @@
         <v>600.63162</v>
       </c>
       <c r="R126" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -59217,7 +59123,7 @@
         <v>600.63162</v>
       </c>
       <c r="R127" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -59286,7 +59192,7 @@
         <v>600.63162</v>
       </c>
       <c r="R128" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -59355,7 +59261,7 @@
         <v>600.63162</v>
       </c>
       <c r="R129" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S129" t="inlineStr">
         <is>
@@ -59424,7 +59330,7 @@
         <v>600.63162</v>
       </c>
       <c r="R130" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -59493,7 +59399,7 @@
         <v>600.63162</v>
       </c>
       <c r="R131" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -59562,7 +59468,7 @@
         <v>600.63162</v>
       </c>
       <c r="R132" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S132" t="inlineStr">
         <is>
@@ -59631,7 +59537,7 @@
         <v>600.63162</v>
       </c>
       <c r="R133" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
@@ -59700,7 +59606,7 @@
         <v>600.63162</v>
       </c>
       <c r="R134" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
@@ -59769,7 +59675,7 @@
         <v>600.63162</v>
       </c>
       <c r="R135" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -59838,7 +59744,7 @@
         <v>600.63162</v>
       </c>
       <c r="R136" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -59907,7 +59813,7 @@
         <v>600.63162</v>
       </c>
       <c r="R137" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -59976,7 +59882,7 @@
         <v>600.63162</v>
       </c>
       <c r="R138" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
@@ -60045,7 +59951,7 @@
         <v>600.63162</v>
       </c>
       <c r="R139" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -60114,7 +60020,7 @@
         <v>600.63162</v>
       </c>
       <c r="R140" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -60183,7 +60089,7 @@
         <v>600.63162</v>
       </c>
       <c r="R141" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
@@ -60252,7 +60158,7 @@
         <v>600.63162</v>
       </c>
       <c r="R142" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -60321,7 +60227,7 @@
         <v>600.63162</v>
       </c>
       <c r="R143" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -60390,7 +60296,7 @@
         <v>600.63162</v>
       </c>
       <c r="R144" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
@@ -60459,7 +60365,7 @@
         <v>600.63162</v>
       </c>
       <c r="R145" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -60528,7 +60434,7 @@
         <v>600.63162</v>
       </c>
       <c r="R146" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -60597,7 +60503,7 @@
         <v>600.63162</v>
       </c>
       <c r="R147" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -60666,7 +60572,7 @@
         <v>600.63162</v>
       </c>
       <c r="R148" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -60735,7 +60641,7 @@
         <v>600.63162</v>
       </c>
       <c r="R149" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S149" t="inlineStr">
         <is>
@@ -60804,7 +60710,7 @@
         <v>600.63162</v>
       </c>
       <c r="R150" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -60873,7 +60779,7 @@
         <v>600.63162</v>
       </c>
       <c r="R151" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -60942,7 +60848,7 @@
         <v>600.63162</v>
       </c>
       <c r="R152" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
@@ -61011,7 +60917,7 @@
         <v>600.63162</v>
       </c>
       <c r="R153" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
@@ -61080,7 +60986,7 @@
         <v>600.63162</v>
       </c>
       <c r="R154" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S154" t="inlineStr">
         <is>
@@ -61149,7 +61055,7 @@
         <v>600.63162</v>
       </c>
       <c r="R155" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -61218,7 +61124,7 @@
         <v>600.63162</v>
       </c>
       <c r="R156" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -61287,7 +61193,7 @@
         <v>600.63162</v>
       </c>
       <c r="R157" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
@@ -61356,7 +61262,7 @@
         <v>600.63162</v>
       </c>
       <c r="R158" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
@@ -61425,7 +61331,7 @@
         <v>600.63162</v>
       </c>
       <c r="R159" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
@@ -61494,7 +61400,7 @@
         <v>600.63162</v>
       </c>
       <c r="R160" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
@@ -61563,7 +61469,7 @@
         <v>600.63162</v>
       </c>
       <c r="R161" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S161" t="inlineStr">
         <is>
@@ -61632,7 +61538,7 @@
         <v>600.63162</v>
       </c>
       <c r="R162" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S162" t="inlineStr">
         <is>
@@ -61701,7 +61607,7 @@
         <v>600.63162</v>
       </c>
       <c r="R163" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -61770,7 +61676,7 @@
         <v>600.63162</v>
       </c>
       <c r="R164" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -61839,7 +61745,7 @@
         <v>600.63162</v>
       </c>
       <c r="R165" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S165" t="inlineStr">
         <is>
@@ -61908,7 +61814,7 @@
         <v>600.63162</v>
       </c>
       <c r="R166" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
@@ -61977,7 +61883,7 @@
         <v>600.63162</v>
       </c>
       <c r="R167" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
@@ -62046,7 +61952,7 @@
         <v>600.63162</v>
       </c>
       <c r="R168" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
@@ -62115,7 +62021,7 @@
         <v>600.63162</v>
       </c>
       <c r="R169" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -62184,7 +62090,7 @@
         <v>600.63162</v>
       </c>
       <c r="R170" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -62253,7 +62159,7 @@
         <v>600.63162</v>
       </c>
       <c r="R171" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S171" t="inlineStr">
         <is>
@@ -62322,7 +62228,7 @@
         <v>600.63162</v>
       </c>
       <c r="R172" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S172" t="inlineStr">
         <is>
@@ -62391,7 +62297,7 @@
         <v>600.63162</v>
       </c>
       <c r="R173" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
@@ -62460,7 +62366,7 @@
         <v>600.63162</v>
       </c>
       <c r="R174" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
@@ -62529,7 +62435,7 @@
         <v>600.63162</v>
       </c>
       <c r="R175" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
@@ -62598,7 +62504,7 @@
         <v>600.63162</v>
       </c>
       <c r="R176" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
@@ -62667,7 +62573,7 @@
         <v>600.63162</v>
       </c>
       <c r="R177" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
@@ -62736,7 +62642,7 @@
         <v>600.63162</v>
       </c>
       <c r="R178" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
@@ -62805,7 +62711,7 @@
         <v>600.63162</v>
       </c>
       <c r="R179" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
@@ -62874,7 +62780,7 @@
         <v>600.63162</v>
       </c>
       <c r="R180" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
@@ -62943,7 +62849,7 @@
         <v>600.63162</v>
       </c>
       <c r="R181" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S181" t="inlineStr">
         <is>
@@ -63012,7 +62918,7 @@
         <v>600.63162</v>
       </c>
       <c r="R182" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
@@ -63081,7 +62987,7 @@
         <v>600.63162</v>
       </c>
       <c r="R183" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
@@ -63150,7 +63056,7 @@
         <v>600.63162</v>
       </c>
       <c r="R184" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -63219,7 +63125,7 @@
         <v>600.63162</v>
       </c>
       <c r="R185" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -63288,7 +63194,7 @@
         <v>600.63162</v>
       </c>
       <c r="R186" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S186" t="inlineStr">
         <is>
@@ -63357,7 +63263,7 @@
         <v>600.63162</v>
       </c>
       <c r="R187" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S187" t="inlineStr">
         <is>
@@ -63426,7 +63332,7 @@
         <v>600.63162</v>
       </c>
       <c r="R188" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
@@ -63495,7 +63401,7 @@
         <v>600.63162</v>
       </c>
       <c r="R189" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
@@ -63564,7 +63470,7 @@
         <v>600.63162</v>
       </c>
       <c r="R190" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S190" t="inlineStr">
         <is>
@@ -63633,7 +63539,7 @@
         <v>600.63162</v>
       </c>
       <c r="R191" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -63702,7 +63608,7 @@
         <v>600.63162</v>
       </c>
       <c r="R192" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S192" t="inlineStr">
         <is>
@@ -63771,7 +63677,7 @@
         <v>600.63162</v>
       </c>
       <c r="R193" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S193" t="inlineStr">
         <is>
@@ -63840,7 +63746,7 @@
         <v>600.63162</v>
       </c>
       <c r="R194" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
@@ -63909,7 +63815,7 @@
         <v>600.63162</v>
       </c>
       <c r="R195" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
@@ -63978,7 +63884,7 @@
         <v>600.63162</v>
       </c>
       <c r="R196" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -64047,7 +63953,7 @@
         <v>600.63162</v>
       </c>
       <c r="R197" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -64116,7 +64022,7 @@
         <v>600.63162</v>
       </c>
       <c r="R198" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S198" t="inlineStr">
         <is>
@@ -64185,7 +64091,7 @@
         <v>600.63162</v>
       </c>
       <c r="R199" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S199" t="inlineStr">
         <is>
@@ -64254,7 +64160,7 @@
         <v>600.63162</v>
       </c>
       <c r="R200" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
@@ -64323,7 +64229,7 @@
         <v>600.63162</v>
       </c>
       <c r="R201" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
@@ -64392,7 +64298,7 @@
         <v>600.63162</v>
       </c>
       <c r="R202" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S202" t="inlineStr">
         <is>
@@ -64461,7 +64367,7 @@
         <v>600.63162</v>
       </c>
       <c r="R203" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
@@ -64530,7 +64436,7 @@
         <v>600.63162</v>
       </c>
       <c r="R204" t="n">
-        <v>3.0031581</v>
+        <v>3</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
@@ -64550,7 +64456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AW25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -64734,7 +64640,7 @@
         <v>493.62</v>
       </c>
       <c r="R2" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
@@ -64808,7 +64714,7 @@
         <v>493.62</v>
       </c>
       <c r="R3" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
@@ -64882,7 +64788,7 @@
         <v>493.62</v>
       </c>
       <c r="R4" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
@@ -64956,7 +64862,7 @@
         <v>493.62</v>
       </c>
       <c r="R5" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -65030,7 +64936,7 @@
         <v>493.62</v>
       </c>
       <c r="R6" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
@@ -65104,7 +65010,7 @@
         <v>493.62</v>
       </c>
       <c r="R7" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
@@ -65178,7 +65084,7 @@
         <v>493.62</v>
       </c>
       <c r="R8" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -65252,7 +65158,7 @@
         <v>493.62</v>
       </c>
       <c r="R9" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -65326,7 +65232,7 @@
         <v>493.62</v>
       </c>
       <c r="R10" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -65400,7 +65306,7 @@
         <v>493.62</v>
       </c>
       <c r="R11" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -65474,7 +65380,7 @@
         <v>493.62</v>
       </c>
       <c r="R12" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -65548,7 +65454,7 @@
         <v>493.62</v>
       </c>
       <c r="R13" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -65622,7 +65528,7 @@
         <v>493.62</v>
       </c>
       <c r="R14" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -65696,7 +65602,7 @@
         <v>493.62</v>
       </c>
       <c r="R15" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -65770,7 +65676,7 @@
         <v>493.62</v>
       </c>
       <c r="R16" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
@@ -65844,7 +65750,7 @@
         <v>493.62</v>
       </c>
       <c r="R17" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
@@ -65918,7 +65824,7 @@
         <v>493.62</v>
       </c>
       <c r="R18" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -65992,7 +65898,7 @@
         <v>493.62</v>
       </c>
       <c r="R19" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -66066,7 +65972,7 @@
         <v>493.62</v>
       </c>
       <c r="R20" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
@@ -66140,7 +66046,7 @@
         <v>493.62</v>
       </c>
       <c r="R21" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -66214,7 +66120,7 @@
         <v>493.62</v>
       </c>
       <c r="R22" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
@@ -66288,7 +66194,7 @@
         <v>493.62</v>
       </c>
       <c r="R23" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -66362,7 +66268,7 @@
         <v>493.62</v>
       </c>
       <c r="R24" t="n">
-        <v>3.2908</v>
+        <v>2.65</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>

--- a/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
+++ b/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="11" activeTab="16" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="-1785" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Executive Summary" sheetId="1" state="visible" r:id="rId1"/>
@@ -31,10 +31,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,6 +47,13 @@
       <name val="Calibri"/>
       <b val="1"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,18 +88,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -37935,7 +37953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:V106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -38030,6 +38048,46 @@
           <t>Extended Amount</t>
         </is>
       </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Container Count</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Service Frequency</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Service Days</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Total Yards</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>YPD</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Service Notes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -38091,6 +38149,36 @@
       <c r="N2" t="n">
         <v>185.22</v>
       </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>412</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -38155,6 +38243,36 @@
       <c r="N3" t="n">
         <v>530.25</v>
       </c>
+      <c r="O3" t="n">
+        <v>1</v>
+      </c>
+      <c r="P3" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>412</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -38208,6 +38326,36 @@
       <c r="N4" t="n">
         <v>14.31</v>
       </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>412</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -38261,6 +38409,36 @@
       <c r="N5" t="n">
         <v>44.72</v>
       </c>
+      <c r="O5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>412</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -38325,6 +38503,36 @@
       <c r="N6" t="n">
         <v>131.25</v>
       </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>412</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -38386,6 +38594,36 @@
       <c r="N7" t="n">
         <v>125.58</v>
       </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>412</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -38450,6 +38688,36 @@
       <c r="N8" t="n">
         <v>509.25</v>
       </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>412</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -38511,6 +38779,36 @@
       <c r="N9" t="n">
         <v>130.2</v>
       </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>412</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -38575,6 +38873,36 @@
       <c r="N10" t="n">
         <v>509.25</v>
       </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>412</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -38636,6 +38964,36 @@
       <c r="N11" t="n">
         <v>122.22</v>
       </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>412</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -38700,6 +39058,36 @@
       <c r="N12" t="n">
         <v>509.25</v>
       </c>
+      <c r="O12" t="n">
+        <v>1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>412</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -38761,6 +39149,36 @@
       <c r="N13" t="n">
         <v>107.52</v>
       </c>
+      <c r="O13" t="n">
+        <v>1</v>
+      </c>
+      <c r="P13" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>412</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -38825,6 +39243,36 @@
       <c r="N14" t="n">
         <v>509.25</v>
       </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>412</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -38889,6 +39337,36 @@
       <c r="N15" t="n">
         <v>112.19</v>
       </c>
+      <c r="O15" t="n">
+        <v>1</v>
+      </c>
+      <c r="P15" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>412</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -38953,6 +39431,36 @@
       <c r="N16" t="n">
         <v>4.99</v>
       </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>412</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -39017,6 +39525,36 @@
       <c r="N17" t="n">
         <v>131.25</v>
       </c>
+      <c r="O17" t="n">
+        <v>1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>412</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -39070,6 +39608,36 @@
       <c r="N18" t="n">
         <v>58.05</v>
       </c>
+      <c r="O18" t="n">
+        <v>1</v>
+      </c>
+      <c r="P18" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>412</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -39123,6 +39691,36 @@
       <c r="N19" t="n">
         <v>181.4</v>
       </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>412</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -39184,6 +39782,36 @@
       <c r="N20" t="n">
         <v>156.96</v>
       </c>
+      <c r="O20" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>412</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -39248,6 +39876,36 @@
       <c r="N21" t="n">
         <v>550.4</v>
       </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>412</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -39301,6 +39959,36 @@
       <c r="N22" t="n">
         <v>14.15</v>
       </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>412</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -39354,6 +40042,36 @@
       <c r="N23" t="n">
         <v>44.21</v>
       </c>
+      <c r="O23" t="n">
+        <v>1</v>
+      </c>
+      <c r="P23" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>412</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -39415,6 +40133,36 @@
       <c r="N24" t="n">
         <v>176.14</v>
       </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>412</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -39479,6 +40227,36 @@
       <c r="N25" t="n">
         <v>528.6</v>
       </c>
+      <c r="O25" t="n">
+        <v>1</v>
+      </c>
+      <c r="P25" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>412</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -39540,6 +40318,36 @@
       <c r="N26" t="n">
         <v>98.97</v>
       </c>
+      <c r="O26" t="n">
+        <v>1</v>
+      </c>
+      <c r="P26" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>412</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -39604,6 +40412,36 @@
       <c r="N27" t="n">
         <v>528.6</v>
       </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>412</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -39665,6 +40503,36 @@
       <c r="N28" t="n">
         <v>136.03</v>
       </c>
+      <c r="O28" t="n">
+        <v>1</v>
+      </c>
+      <c r="P28" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>412</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -39729,6 +40597,36 @@
       <c r="N29" t="n">
         <v>528.6</v>
       </c>
+      <c r="O29" t="n">
+        <v>1</v>
+      </c>
+      <c r="P29" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>412</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -39790,6 +40688,36 @@
       <c r="N30" t="n">
         <v>125.57</v>
       </c>
+      <c r="O30" t="n">
+        <v>1</v>
+      </c>
+      <c r="P30" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>412</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -39854,6 +40782,36 @@
       <c r="N31" t="n">
         <v>528.6</v>
       </c>
+      <c r="O31" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>412</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -39915,6 +40873,36 @@
       <c r="N32" t="n">
         <v>127.75</v>
       </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
+      <c r="P32" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>412</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -39979,6 +40967,36 @@
       <c r="N33" t="n">
         <v>528.6</v>
       </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>412</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -40040,6 +41058,36 @@
       <c r="N34" t="n">
         <v>88.06999999999999</v>
       </c>
+      <c r="O34" t="n">
+        <v>1</v>
+      </c>
+      <c r="P34" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>412</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -40104,6 +41152,36 @@
       <c r="N35" t="n">
         <v>528.6</v>
       </c>
+      <c r="O35" t="n">
+        <v>1</v>
+      </c>
+      <c r="P35" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>412</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -40163,6 +41241,36 @@
       <c r="N36" t="n">
         <v>136.24</v>
       </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>412</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -40216,6 +41324,36 @@
       <c r="N37" t="n">
         <v>81.19</v>
       </c>
+      <c r="O37" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>412</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -40269,6 +41407,36 @@
       <c r="N38" t="n">
         <v>253.79</v>
       </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>412</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -40327,6 +41495,36 @@
       <c r="N39" t="n">
         <v>-3141.65</v>
       </c>
+      <c r="O39" t="n">
+        <v>1</v>
+      </c>
+      <c r="P39" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>412</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -40385,6 +41583,36 @@
       <c r="N40" t="n">
         <v>-4395.35</v>
       </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
+      <c r="P40" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>412</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -40446,6 +41674,36 @@
       <c r="N41" t="n">
         <v>194.46</v>
       </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>412</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -40510,6 +41768,36 @@
       <c r="N42" t="n">
         <v>528.6</v>
       </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>412</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -40571,6 +41859,36 @@
       <c r="N43" t="n">
         <v>174.84</v>
       </c>
+      <c r="O43" t="n">
+        <v>1</v>
+      </c>
+      <c r="P43" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>412</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -40635,6 +41953,36 @@
       <c r="N44" t="n">
         <v>528.6</v>
       </c>
+      <c r="O44" t="n">
+        <v>1</v>
+      </c>
+      <c r="P44" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>412</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -40696,6 +42044,36 @@
       <c r="N45" t="n">
         <v>168.3</v>
       </c>
+      <c r="O45" t="n">
+        <v>1</v>
+      </c>
+      <c r="P45" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>412</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -40760,6 +42138,36 @@
       <c r="N46" t="n">
         <v>528.6</v>
       </c>
+      <c r="O46" t="n">
+        <v>1</v>
+      </c>
+      <c r="P46" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>412</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -40821,6 +42229,36 @@
       <c r="N47" t="n">
         <v>135.6</v>
       </c>
+      <c r="O47" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>412</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -40885,6 +42323,36 @@
       <c r="N48" t="n">
         <v>528.6</v>
       </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>412</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -40946,6 +42414,36 @@
       <c r="N49" t="n">
         <v>123.39</v>
       </c>
+      <c r="O49" t="n">
+        <v>1</v>
+      </c>
+      <c r="P49" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>412</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -41010,6 +42508,36 @@
       <c r="N50" t="n">
         <v>528.6</v>
       </c>
+      <c r="O50" t="n">
+        <v>1</v>
+      </c>
+      <c r="P50" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>412</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41071,6 +42599,36 @@
       <c r="N51" t="n">
         <v>96.79000000000001</v>
       </c>
+      <c r="O51" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>412</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41135,6 +42693,36 @@
       <c r="N52" t="n">
         <v>528.6</v>
       </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>412</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -41196,6 +42784,36 @@
       <c r="N53" t="n">
         <v>112.05</v>
       </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>412</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -41260,6 +42878,36 @@
       <c r="N54" t="n">
         <v>528.6</v>
       </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>412</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -41324,6 +42972,36 @@
       <c r="N55" t="n">
         <v>-136.24</v>
       </c>
+      <c r="O55" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>412</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -41388,6 +43066,36 @@
       <c r="N56" t="n">
         <v>136.24</v>
       </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>412</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -41441,6 +43149,36 @@
       <c r="N57" t="n">
         <v>94.11</v>
       </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>412</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -41494,6 +43232,36 @@
       <c r="N58" t="n">
         <v>294.12</v>
       </c>
+      <c r="O58" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>412</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -41558,6 +43326,36 @@
       <c r="N59" t="n">
         <v>112.49</v>
       </c>
+      <c r="O59" t="n">
+        <v>1</v>
+      </c>
+      <c r="P59" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>412</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -41622,6 +43420,36 @@
       <c r="N60" t="n">
         <v>550.4</v>
       </c>
+      <c r="O60" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>412</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -41686,6 +43514,36 @@
       <c r="N61" t="n">
         <v>109.44</v>
       </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>412</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -41750,6 +43608,36 @@
       <c r="N62" t="n">
         <v>550.4</v>
       </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>412</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -41814,6 +43702,36 @@
       <c r="N63" t="n">
         <v>139.08</v>
       </c>
+      <c r="O63" t="n">
+        <v>1</v>
+      </c>
+      <c r="P63" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>412</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -41878,6 +43796,36 @@
       <c r="N64" t="n">
         <v>550.4</v>
       </c>
+      <c r="O64" t="n">
+        <v>1</v>
+      </c>
+      <c r="P64" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>412</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -41931,6 +43879,36 @@
       <c r="N65" t="n">
         <v>40.25</v>
       </c>
+      <c r="O65" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>412</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -41984,6 +43962,36 @@
       <c r="N66" t="n">
         <v>125.76</v>
       </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>412</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -42045,6 +44053,36 @@
       <c r="N67" t="n">
         <v>105.95</v>
       </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>412</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -42109,6 +44147,36 @@
       <c r="N68" t="n">
         <v>528.6</v>
       </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>412</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -42170,6 +44238,36 @@
       <c r="N69" t="n">
         <v>86.33</v>
       </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>412</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -42234,6 +44332,36 @@
       <c r="N70" t="n">
         <v>528.6</v>
       </c>
+      <c r="O70" t="n">
+        <v>1</v>
+      </c>
+      <c r="P70" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>412</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -42295,6 +44423,36 @@
       <c r="N71" t="n">
         <v>124.26</v>
       </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>412</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -42359,6 +44517,36 @@
       <c r="N72" t="n">
         <v>528.6</v>
       </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>412</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -42420,6 +44608,36 @@
       <c r="N73" t="n">
         <v>185.3</v>
       </c>
+      <c r="O73" t="n">
+        <v>1</v>
+      </c>
+      <c r="P73" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>412</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -42484,6 +44702,36 @@
       <c r="N74" t="n">
         <v>528.6</v>
       </c>
+      <c r="O74" t="n">
+        <v>1</v>
+      </c>
+      <c r="P74" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>412</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -42543,6 +44791,36 @@
       <c r="N75" t="n">
         <v>136.24</v>
       </c>
+      <c r="O75" t="n">
+        <v>1</v>
+      </c>
+      <c r="P75" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>412</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -42602,6 +44880,36 @@
       <c r="N76" t="n">
         <v>163.11</v>
       </c>
+      <c r="O76" t="n">
+        <v>1</v>
+      </c>
+      <c r="P76" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>412</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -42661,6 +44969,36 @@
       <c r="N77" t="n">
         <v>136.24</v>
       </c>
+      <c r="O77" t="n">
+        <v>1</v>
+      </c>
+      <c r="P77" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>412</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -42714,6 +45052,36 @@
       <c r="N78" t="n">
         <v>54.51</v>
       </c>
+      <c r="O78" t="n">
+        <v>1</v>
+      </c>
+      <c r="P78" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>412</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -42767,6 +45135,36 @@
       <c r="N79" t="n">
         <v>170.38</v>
       </c>
+      <c r="O79" t="n">
+        <v>1</v>
+      </c>
+      <c r="P79" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>412</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -42831,6 +45229,36 @@
       <c r="N80" t="n">
         <v>180.5</v>
       </c>
+      <c r="O80" t="n">
+        <v>1</v>
+      </c>
+      <c r="P80" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>412</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -42895,6 +45323,36 @@
       <c r="N81" t="n">
         <v>550.4</v>
       </c>
+      <c r="O81" t="n">
+        <v>1</v>
+      </c>
+      <c r="P81" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>412</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -42959,6 +45417,36 @@
       <c r="N82" t="n">
         <v>197.94</v>
       </c>
+      <c r="O82" t="n">
+        <v>1</v>
+      </c>
+      <c r="P82" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>412</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -43023,6 +45511,36 @@
       <c r="N83" t="n">
         <v>550.4</v>
       </c>
+      <c r="O83" t="n">
+        <v>1</v>
+      </c>
+      <c r="P83" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>412</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -43087,6 +45605,36 @@
       <c r="N84" t="n">
         <v>207.97</v>
       </c>
+      <c r="O84" t="n">
+        <v>1</v>
+      </c>
+      <c r="P84" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>412</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -43151,6 +45699,36 @@
       <c r="N85" t="n">
         <v>550.4</v>
       </c>
+      <c r="O85" t="n">
+        <v>1</v>
+      </c>
+      <c r="P85" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>412</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -43215,6 +45793,36 @@
       <c r="N86" t="n">
         <v>146.06</v>
       </c>
+      <c r="O86" t="n">
+        <v>1</v>
+      </c>
+      <c r="P86" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>412</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -43279,6 +45887,36 @@
       <c r="N87" t="n">
         <v>550.4</v>
       </c>
+      <c r="O87" t="n">
+        <v>1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>412</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -43343,6 +45981,36 @@
       <c r="N88" t="n">
         <v>250.26</v>
       </c>
+      <c r="O88" t="n">
+        <v>1</v>
+      </c>
+      <c r="P88" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>412</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -43407,6 +46075,36 @@
       <c r="N89" t="n">
         <v>550.4</v>
       </c>
+      <c r="O89" t="n">
+        <v>1</v>
+      </c>
+      <c r="P89" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>412</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -43460,6 +46158,36 @@
       <c r="N90" t="n">
         <v>74.70999999999999</v>
       </c>
+      <c r="O90" t="n">
+        <v>1</v>
+      </c>
+      <c r="P90" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>412</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -43513,6 +46241,36 @@
       <c r="N91" t="n">
         <v>233.42</v>
       </c>
+      <c r="O91" t="n">
+        <v>1</v>
+      </c>
+      <c r="P91" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>412</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -43574,6 +46332,36 @@
       <c r="N92" t="n">
         <v>340.52</v>
       </c>
+      <c r="O92" t="n">
+        <v>1</v>
+      </c>
+      <c r="P92" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>412</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -43638,6 +46426,36 @@
       <c r="N93" t="n">
         <v>550.4</v>
       </c>
+      <c r="O93" t="n">
+        <v>1</v>
+      </c>
+      <c r="P93" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>412</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -43699,6 +46517,36 @@
       <c r="N94" t="n">
         <v>275.55</v>
       </c>
+      <c r="O94" t="n">
+        <v>1</v>
+      </c>
+      <c r="P94" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>412</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -43763,6 +46611,36 @@
       <c r="N95" t="n">
         <v>550.4</v>
       </c>
+      <c r="O95" t="n">
+        <v>1</v>
+      </c>
+      <c r="P95" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>412</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -43824,6 +46702,36 @@
       <c r="N96" t="n">
         <v>279.48</v>
       </c>
+      <c r="O96" t="n">
+        <v>1</v>
+      </c>
+      <c r="P96" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>412</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -43888,6 +46796,36 @@
       <c r="N97" t="n">
         <v>550.4</v>
       </c>
+      <c r="O97" t="n">
+        <v>1</v>
+      </c>
+      <c r="P97" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>412</v>
+      </c>
+      <c r="U97" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -43941,6 +46879,36 @@
       <c r="N98" t="n">
         <v>50.94</v>
       </c>
+      <c r="O98" t="n">
+        <v>1</v>
+      </c>
+      <c r="P98" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>412</v>
+      </c>
+      <c r="U98" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -43994,6 +46962,36 @@
       <c r="N99" t="n">
         <v>159.17</v>
       </c>
+      <c r="O99" t="n">
+        <v>1</v>
+      </c>
+      <c r="P99" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>412</v>
+      </c>
+      <c r="U99" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -44058,6 +47056,36 @@
       <c r="N100" t="n">
         <v>248.96</v>
       </c>
+      <c r="O100" t="n">
+        <v>1</v>
+      </c>
+      <c r="P100" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>412</v>
+      </c>
+      <c r="U100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -44122,6 +47150,36 @@
       <c r="N101" t="n">
         <v>550.4</v>
       </c>
+      <c r="O101" t="n">
+        <v>1</v>
+      </c>
+      <c r="P101" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>412</v>
+      </c>
+      <c r="U101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -44186,6 +47244,36 @@
       <c r="N102" t="n">
         <v>430.77</v>
       </c>
+      <c r="O102" t="n">
+        <v>1</v>
+      </c>
+      <c r="P102" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>412</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -44250,6 +47338,36 @@
       <c r="N103" t="n">
         <v>550.4</v>
       </c>
+      <c r="O103" t="n">
+        <v>1</v>
+      </c>
+      <c r="P103" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>412</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -44303,6 +47421,36 @@
       <c r="N104" t="n">
         <v>35.62</v>
       </c>
+      <c r="O104" t="n">
+        <v>1</v>
+      </c>
+      <c r="P104" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>412</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -44356,7 +47504,38 @@
       <c r="N105" t="n">
         <v>111.28</v>
       </c>
-    </row>
+      <c r="O105" t="n">
+        <v>1</v>
+      </c>
+      <c r="P105" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>On-call (avg 2.4x/week)</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>412</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>1×40CY Compactor @ on-call service (avg 10.3 pickups/month)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -44368,7 +47547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -47056,7 +50235,6 @@
         </is>
       </c>
     </row>
-    <row r="39"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -47068,7 +50246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S49"/>
+  <dimension ref="A1:S48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -50274,7 +53452,6 @@
         </is>
       </c>
     </row>
-    <row r="49"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -50286,7 +53463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S205"/>
+  <dimension ref="A1:S204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -64444,7 +67621,6 @@
         </is>
       </c>
     </row>
-    <row r="205"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -64456,9 +67632,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -66276,7 +69452,6 @@
         </is>
       </c>
     </row>
-    <row r="25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -66291,7 +69466,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -66619,7 +69794,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -66628,8 +69803,8 @@
     <col width="5.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="11.109375" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="7.6640625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="16" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="12.77734375" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="16" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
     <col width="38.44140625" bestFit="1" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -66654,12 +69829,12 @@
           <t>Months</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Monthly Average</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Cost Per Door</t>
         </is>
@@ -66685,10 +69860,10 @@
       <c r="D2" t="n">
         <v>8.9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="5" t="n">
         <v>7534.366672058823</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="5" t="n">
         <v>10.53757576511724</v>
       </c>
       <c r="G2" t="inlineStr">
@@ -66712,10 +69887,10 @@
       <c r="D3" t="n">
         <v>9</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="5" t="n">
         <v>11056.15142564103</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5" t="n">
         <v>26.57728708086785</v>
       </c>
       <c r="G3" t="inlineStr">
@@ -66739,10 +69914,10 @@
       <c r="D4" t="n">
         <v>8</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="5" t="n">
         <v>7176.825020576132</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5" t="n">
         <v>15.84288084012391</v>
       </c>
       <c r="G4" t="inlineStr">
@@ -66766,10 +69941,10 @@
       <c r="D5" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="5" t="n">
         <v>4950.625194339624</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="5" t="n">
         <v>15.86738844339623</v>
       </c>
       <c r="G5" t="inlineStr">
@@ -66793,10 +69968,10 @@
       <c r="D6" t="n">
         <v>5.9</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="5" t="n">
         <v>5241.835270718232</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="5" t="n">
         <v>17.0189456841501</v>
       </c>
       <c r="G6" t="inlineStr">
@@ -66820,10 +69995,10 @@
       <c r="D7" t="n">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="5" t="n">
         <v>13938.96542745098</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5" t="n">
         <v>24.89100969187676</v>
       </c>
       <c r="G7" t="inlineStr">
@@ -66847,10 +70022,10 @@
       <c r="D8" t="n">
         <v>11.5</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="5" t="n">
         <v>2997.098048</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" s="5" t="n">
         <v>16.65054471111111</v>
       </c>
       <c r="G8" t="inlineStr">
@@ -66874,10 +70049,10 @@
       <c r="D9" t="n">
         <v>11</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5" t="n">
         <v>3845.749619104478</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="5" t="n">
         <v>15.50705491574386</v>
       </c>
       <c r="G9" t="inlineStr">
@@ -66901,10 +70076,10 @@
       <c r="D10" t="n">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="5" t="n">
         <v>17461.76061492537</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" s="5" t="n">
         <v>87.30880307462687</v>
       </c>
       <c r="G10" t="inlineStr">
@@ -66928,10 +70103,10 @@
       <c r="D11" t="n">
         <v>11</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="5" t="n">
         <v>3074.820955688623</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="5" t="n">
         <v>16.53129546069152</v>
       </c>
       <c r="G11" t="inlineStr">
@@ -66954,16 +70129,16 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
     <col width="21.21875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="20.5546875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="11.109375" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="16" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="12.77734375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="12.21875" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="16" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="12.77734375" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -66977,17 +70152,17 @@
           <t>Category</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Total Spend</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Monthly Average</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Cost Per Door</t>
         </is>
@@ -67004,13 +70179,13 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="5" t="n">
         <v>67324.17</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="5" t="n">
         <v>7534.366672058823</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="5" t="n">
         <v>10.53757576511724</v>
       </c>
     </row>
@@ -67025,13 +70200,13 @@
           <t>extra_pickup</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="5" t="n">
         <v>33813.83</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" s="5" t="n">
         <v>3784.165386764706</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3" s="5" t="n">
         <v>5.29253900246812</v>
       </c>
     </row>
@@ -67046,13 +70221,13 @@
           <t>overage</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="5" t="n">
         <v>20171.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" s="5" t="n">
         <v>2257.439352941176</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4" s="5" t="n">
         <v>3.157257836281365</v>
       </c>
     </row>
@@ -67067,13 +70242,13 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="5" t="n">
         <v>99156.67999999999</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="5" t="n">
         <v>11056.15142564103</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="5" t="n">
         <v>26.57728708086785</v>
       </c>
     </row>
@@ -67088,13 +70263,13 @@
           <t>extra_pickup</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="5" t="n">
         <v>11279.6</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" s="5" t="n">
         <v>1257.696058608059</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6" s="5" t="n">
         <v>3.023307833192449</v>
       </c>
     </row>
@@ -67109,13 +70284,13 @@
           <t>tax</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="5" t="n">
         <v>99156.67999999999</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" s="5" t="n">
         <v>11056.15142564103</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7" s="5" t="n">
         <v>26.57728708086785</v>
       </c>
     </row>
@@ -67130,13 +70305,13 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="5" t="n">
         <v>54439.09</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="5" t="n">
         <v>6819.448146502059</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8" s="5" t="n">
         <v>15.05396941832684</v>
       </c>
     </row>
@@ -67151,13 +70326,13 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="5" t="n">
         <v>57064.64</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" s="5" t="n">
         <v>7148.344204115227</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9" s="5" t="n">
         <v>15.78000928060756</v>
       </c>
     </row>
@@ -67172,13 +70347,13 @@
           <t>franchise_fee</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="5" t="n">
         <v>54666.45</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="5" t="n">
         <v>6847.928962962964</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10" s="5" t="n">
         <v>15.11684097784319</v>
       </c>
     </row>
@@ -67193,13 +70368,13 @@
           <t>overage</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="5" t="n">
         <v>227.36</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" s="5" t="n">
         <v>28.48081646090535</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11" s="5" t="n">
         <v>0.06287155951634731</v>
       </c>
     </row>
@@ -67214,13 +70389,13 @@
           <t>tax</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="5" t="n">
         <v>57292</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" s="5" t="n">
         <v>7176.825020576132</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12" s="5" t="n">
         <v>15.84288084012391</v>
       </c>
     </row>
@@ -67235,13 +70410,13 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="5" t="n">
         <v>34478.73</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="5" t="n">
         <v>4950.625194339624</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="5" t="n">
         <v>15.86738844339623</v>
       </c>
     </row>
@@ -67256,13 +70431,13 @@
           <t>other</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="5" t="n">
         <v>3959.88</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" s="5" t="n">
         <v>568.5789962264151</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14" s="5" t="n">
         <v>1.822368577648766</v>
       </c>
     </row>
@@ -67277,13 +70452,13 @@
           <t>overage</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="5" t="n">
         <v>33173.92</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="5" t="n">
         <v>4763.274173584906</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="5" t="n">
         <v>15.26690440251572</v>
       </c>
     </row>
@@ -67298,13 +70473,13 @@
           <t>tax</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="5" t="n">
         <v>34478.73</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="5" t="n">
         <v>4950.625194339624</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="5" t="n">
         <v>15.86738844339623</v>
       </c>
     </row>
@@ -67319,13 +70494,13 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="5" t="n">
         <v>31168.6</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="5" t="n">
         <v>5241.835270718232</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="5" t="n">
         <v>17.0189456841501</v>
       </c>
     </row>
@@ -67340,13 +70515,13 @@
           <t>extra_pickup</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="5" t="n">
         <v>12630.86</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="5" t="n">
         <v>2124.217560220995</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="5" t="n">
         <v>6.896810260457775</v>
       </c>
     </row>
@@ -67361,13 +70536,13 @@
           <t>other</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="5" t="n">
         <v>8044.36</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="5" t="n">
         <v>1352.874687292817</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="5" t="n">
         <v>4.392450283418239</v>
       </c>
     </row>
@@ -67382,13 +70557,13 @@
           <t>tax</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="5" t="n">
         <v>31168.6</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="5" t="n">
         <v>5241.835270718232</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="5" t="n">
         <v>17.0189456841501</v>
       </c>
     </row>
@@ -67403,13 +70578,13 @@
           <t>Container Rental</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="5" t="n">
         <v>10234.8</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="5" t="n">
         <v>2036.25694117647</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="5" t="n">
         <v>3.636173109243698</v>
       </c>
     </row>
@@ -67424,13 +70599,13 @@
           <t>Bulk/Extra Pickups</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="5" t="n">
         <v>6414.24</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="5" t="n">
         <v>1276.140298039216</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="5" t="n">
         <v>2.278821960784314</v>
       </c>
     </row>
@@ -67445,13 +70620,13 @@
           <t>Other Services</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="5" t="n">
         <v>27387.16</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="5" t="n">
         <v>5448.791832679741</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="5" t="n">
         <v>9.729985415499531</v>
       </c>
     </row>
@@ -67466,13 +70641,13 @@
           <t>Disposal</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="5" t="n">
         <v>26024.96</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="5" t="n">
         <v>5177.776355555556</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="5" t="n">
         <v>9.246029206349206</v>
       </c>
     </row>
@@ -67487,13 +70662,13 @@
           <t>General Waste Service</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="5" t="n">
         <v>34460.72</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="5" t="n">
         <v>2997.098048</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="5" t="n">
         <v>16.65054471111111</v>
       </c>
     </row>
@@ -67508,13 +70683,13 @@
           <t>General Waste Service</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="5" t="n">
         <v>42323.46000000001</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="5" t="n">
         <v>3845.749619104478</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="5" t="n">
         <v>15.50705491574386</v>
       </c>
     </row>
@@ -67529,13 +70704,13 @@
           <t>General Waste Service</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="5" t="n">
         <v>192171.15</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="5" t="n">
         <v>17461.76061492537</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="5" t="n">
         <v>87.30880307462687</v>
       </c>
     </row>
@@ -67550,13 +70725,13 @@
           <t>General Waste Service</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="5" t="n">
         <v>33738.18</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="5" t="n">
         <v>3074.820955688623</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="5" t="n">
         <v>16.53129546069152</v>
       </c>
     </row>
@@ -67573,7 +70748,7 @@
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -68918,10 +72093,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -68932,7 +72107,7 @@
     <col width="15.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="14.88671875" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="11.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="14.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="14.6640625" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
     <col width="11.6640625" bestFit="1" customWidth="1" min="8" max="8"/>
     <col width="12.44140625" bestFit="1" customWidth="1" min="9" max="9"/>
     <col width="109.88671875" bestFit="1" customWidth="1" min="10" max="10"/>
@@ -68972,7 +72147,7 @@
           <t>Invoice Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Invoice Amount</t>
         </is>
@@ -69010,6 +72185,46 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Extended Amount</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Container Count</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>Service Frequency</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Service Days</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>Total Yards</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>YPD</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>Service Notes</t>
         </is>
       </c>
     </row>
@@ -69044,7 +72259,7 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="5" t="n">
         <v>2655.07</v>
       </c>
       <c r="I2" t="inlineStr">
@@ -69065,6 +72280,36 @@
       <c r="N2" t="n">
         <v>-2791.48</v>
       </c>
+      <c r="O2" t="n">
+        <v>2</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>6</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -69097,7 +72342,7 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5" t="n">
         <v>2655.07</v>
       </c>
       <c r="I3" t="inlineStr">
@@ -69124,6 +72369,36 @@
       <c r="N3" t="n">
         <v>42</v>
       </c>
+      <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>6</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -69156,7 +72431,7 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5" t="n">
         <v>2655.07</v>
       </c>
       <c r="I4" t="inlineStr">
@@ -69183,6 +72458,36 @@
       <c r="N4" t="n">
         <v>2410.72</v>
       </c>
+      <c r="O4" t="n">
+        <v>2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>6</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -69215,7 +72520,7 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="5" t="n">
         <v>2655.07</v>
       </c>
       <c r="I5" t="inlineStr">
@@ -69236,6 +72541,36 @@
       <c r="N5" t="n">
         <v>49.05</v>
       </c>
+      <c r="O5" t="n">
+        <v>2</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>6</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -69268,7 +72603,7 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="5" t="n">
         <v>2655.07</v>
       </c>
       <c r="I6" t="inlineStr">
@@ -69289,6 +72624,36 @@
       <c r="N6" t="n">
         <v>153.3</v>
       </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>6</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -69321,7 +72686,7 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="5" t="n">
         <v>1304.81</v>
       </c>
       <c r="I7" t="inlineStr">
@@ -69342,6 +72707,36 @@
       <c r="N7" t="n">
         <v>-1486.69</v>
       </c>
+      <c r="O7" t="n">
+        <v>2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>6</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -69374,7 +72769,7 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="5" t="n">
         <v>1304.81</v>
       </c>
       <c r="I8" t="inlineStr">
@@ -69401,6 +72796,36 @@
       <c r="N8" t="n">
         <v>1205.36</v>
       </c>
+      <c r="O8" t="n">
+        <v>2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>6</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -69433,7 +72858,7 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>1304.81</v>
       </c>
       <c r="I9" t="inlineStr">
@@ -69454,6 +72879,36 @@
       <c r="N9" t="n">
         <v>24.11</v>
       </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>6</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -69486,7 +72941,7 @@
           <t>2025-01-25</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>1304.81</v>
       </c>
       <c r="I10" t="inlineStr">
@@ -69507,6 +72962,36 @@
       <c r="N10" t="n">
         <v>75.34</v>
       </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>6</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -69539,7 +73024,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="H11" t="inlineStr">
@@ -69571,6 +73056,36 @@
       <c r="N11" t="n">
         <v>43.6</v>
       </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>6</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -69603,7 +73118,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="H12" t="inlineStr">
@@ -69635,6 +73150,36 @@
       <c r="N12" t="n">
         <v>43.6</v>
       </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>6</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -69667,7 +73212,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I13" t="inlineStr">
@@ -69694,6 +73239,36 @@
       <c r="N13" t="n">
         <v>1251.16</v>
       </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>6</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -69726,7 +73301,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I14" t="inlineStr">
@@ -69747,6 +73322,36 @@
       <c r="N14" t="n">
         <v>26.76</v>
       </c>
+      <c r="O14" t="n">
+        <v>2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -69779,7 +73384,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I15" t="inlineStr">
@@ -69800,6 +73405,36 @@
       <c r="N15" t="n">
         <v>83.66</v>
       </c>
+      <c r="O15" t="n">
+        <v>2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>6</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -69832,7 +73467,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="H16" t="inlineStr">
@@ -69864,6 +73499,36 @@
       <c r="N16" t="n">
         <v>43.6</v>
       </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
+      <c r="P16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>6</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -69896,7 +73561,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="H17" t="inlineStr">
@@ -69928,6 +73593,36 @@
       <c r="N17" t="n">
         <v>43.6</v>
       </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>6</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -69960,7 +73655,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="H18" t="inlineStr">
@@ -69992,6 +73687,36 @@
       <c r="N18" t="n">
         <v>43.6</v>
       </c>
+      <c r="O18" t="n">
+        <v>2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>6</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -70024,7 +73749,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="H19" t="inlineStr">
@@ -70056,6 +73781,36 @@
       <c r="N19" t="n">
         <v>43.6</v>
       </c>
+      <c r="O19" t="n">
+        <v>2</v>
+      </c>
+      <c r="P19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>6</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -70088,7 +73843,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="I20" t="inlineStr">
@@ -70115,6 +73870,36 @@
       <c r="N20" t="n">
         <v>2502.32</v>
       </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>6</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -70147,7 +73932,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="I21" t="inlineStr">
@@ -70168,6 +73953,36 @@
       <c r="N21" t="n">
         <v>53.53</v>
       </c>
+      <c r="O21" t="n">
+        <v>2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>6</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -70200,7 +74015,7 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="I22" t="inlineStr">
@@ -70221,6 +74036,36 @@
       <c r="N22" t="n">
         <v>167.32</v>
       </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>6</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -70253,7 +74098,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="H23" t="inlineStr">
@@ -70285,6 +74130,36 @@
       <c r="N23" t="n">
         <v>43.6</v>
       </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>6</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -70317,7 +74192,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="H24" t="inlineStr">
@@ -70349,6 +74224,36 @@
       <c r="N24" t="n">
         <v>43.6</v>
       </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -70381,7 +74286,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="H25" t="inlineStr">
@@ -70413,6 +74318,36 @@
       <c r="N25" t="n">
         <v>43.6</v>
       </c>
+      <c r="O25" t="n">
+        <v>2</v>
+      </c>
+      <c r="P25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>6</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -70445,7 +74380,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="H26" t="inlineStr">
@@ -70477,6 +74412,36 @@
       <c r="N26" t="n">
         <v>43.6</v>
       </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
+      <c r="P26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>6</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -70509,7 +74474,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="H27" t="inlineStr">
@@ -70541,6 +74506,36 @@
       <c r="N27" t="n">
         <v>43.6</v>
       </c>
+      <c r="O27" t="n">
+        <v>2</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>6</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -70573,7 +74568,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="H28" t="inlineStr">
@@ -70605,6 +74600,36 @@
       <c r="N28" t="n">
         <v>43.6</v>
       </c>
+      <c r="O28" t="n">
+        <v>2</v>
+      </c>
+      <c r="P28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>6</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -70637,7 +74662,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="H29" t="inlineStr">
@@ -70669,6 +74694,36 @@
       <c r="N29" t="n">
         <v>43.6</v>
       </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>6</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -70701,7 +74756,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="H30" t="inlineStr">
@@ -70733,6 +74788,36 @@
       <c r="N30" t="n">
         <v>43.6</v>
       </c>
+      <c r="O30" t="n">
+        <v>2</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>6</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -70765,7 +74850,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="I31" t="inlineStr">
@@ -70792,6 +74877,36 @@
       <c r="N31" t="n">
         <v>2502.32</v>
       </c>
+      <c r="O31" t="n">
+        <v>2</v>
+      </c>
+      <c r="P31" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>6</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -70824,7 +74939,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="I32" t="inlineStr">
@@ -70845,6 +74960,36 @@
       <c r="N32" t="n">
         <v>57.01</v>
       </c>
+      <c r="O32" t="n">
+        <v>2</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>6</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -70877,7 +75022,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="5" t="n">
         <v>3086.37</v>
       </c>
       <c r="I33" t="inlineStr">
@@ -70898,6 +75043,36 @@
       <c r="N33" t="n">
         <v>178.24</v>
       </c>
+      <c r="O33" t="n">
+        <v>2</v>
+      </c>
+      <c r="P33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -70930,7 +75105,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="H34" t="inlineStr">
@@ -70962,6 +75137,36 @@
       <c r="N34" t="n">
         <v>43.6</v>
       </c>
+      <c r="O34" t="n">
+        <v>2</v>
+      </c>
+      <c r="P34" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>6</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -70994,7 +75199,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="H35" t="inlineStr">
@@ -71026,6 +75231,36 @@
       <c r="N35" t="n">
         <v>43.6</v>
       </c>
+      <c r="O35" t="n">
+        <v>2</v>
+      </c>
+      <c r="P35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>6</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -71058,7 +75293,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="H36" t="inlineStr">
@@ -71090,6 +75325,36 @@
       <c r="N36" t="n">
         <v>1251.16</v>
       </c>
+      <c r="O36" t="n">
+        <v>2</v>
+      </c>
+      <c r="P36" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>6</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -71122,7 +75387,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I37" t="inlineStr">
@@ -71143,6 +75408,36 @@
       <c r="N37" t="n">
         <v>26.76</v>
       </c>
+      <c r="O37" t="n">
+        <v>2</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>6</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -71175,7 +75470,7 @@
           <t>2025-03-25</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I38" t="inlineStr">
@@ -71196,6 +75491,36 @@
       <c r="N38" t="n">
         <v>83.66</v>
       </c>
+      <c r="O38" t="n">
+        <v>2</v>
+      </c>
+      <c r="P38" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>6</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -71228,7 +75553,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="5" t="n">
         <v>1401.58</v>
       </c>
       <c r="H39" t="inlineStr">
@@ -71260,6 +75585,36 @@
       <c r="N39" t="n">
         <v>43.6</v>
       </c>
+      <c r="O39" t="n">
+        <v>2</v>
+      </c>
+      <c r="P39" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>6</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -71292,7 +75647,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="5" t="n">
         <v>1401.58</v>
       </c>
       <c r="I40" t="inlineStr">
@@ -71319,6 +75674,36 @@
       <c r="N40" t="n">
         <v>1251.16</v>
       </c>
+      <c r="O40" t="n">
+        <v>2</v>
+      </c>
+      <c r="P40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>6</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -71351,7 +75736,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="5" t="n">
         <v>1401.58</v>
       </c>
       <c r="I41" t="inlineStr">
@@ -71372,6 +75757,36 @@
       <c r="N41" t="n">
         <v>25.89</v>
       </c>
+      <c r="O41" t="n">
+        <v>2</v>
+      </c>
+      <c r="P41" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>6</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -71404,7 +75819,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="5" t="n">
         <v>1401.58</v>
       </c>
       <c r="I42" t="inlineStr">
@@ -71425,6 +75840,36 @@
       <c r="N42" t="n">
         <v>80.93000000000001</v>
       </c>
+      <c r="O42" t="n">
+        <v>2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>6</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -71457,7 +75902,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="5" t="n">
         <v>2850.37</v>
       </c>
       <c r="H43" t="inlineStr">
@@ -71489,6 +75934,36 @@
       <c r="N43" t="n">
         <v>43.6</v>
       </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R43" t="n">
+        <v>6</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T43" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -71521,7 +75996,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G44" t="n">
+      <c r="G44" s="5" t="n">
         <v>2850.37</v>
       </c>
       <c r="H44" t="inlineStr">
@@ -71553,6 +76028,36 @@
       <c r="N44" t="n">
         <v>43.6</v>
       </c>
+      <c r="O44" t="n">
+        <v>2</v>
+      </c>
+      <c r="P44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>6</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T44" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -71585,7 +76090,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G45" t="n">
+      <c r="G45" s="5" t="n">
         <v>2850.37</v>
       </c>
       <c r="H45" t="inlineStr">
@@ -71617,6 +76122,36 @@
       <c r="N45" t="n">
         <v>43.6</v>
       </c>
+      <c r="O45" t="n">
+        <v>2</v>
+      </c>
+      <c r="P45" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>6</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -71649,7 +76184,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G46" t="n">
+      <c r="G46" s="5" t="n">
         <v>2850.37</v>
       </c>
       <c r="I46" t="inlineStr">
@@ -71676,6 +76211,36 @@
       <c r="N46" t="n">
         <v>2502.32</v>
       </c>
+      <c r="O46" t="n">
+        <v>2</v>
+      </c>
+      <c r="P46" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>6</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -71708,7 +76273,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G47" t="n">
+      <c r="G47" s="5" t="n">
         <v>2850.37</v>
       </c>
       <c r="I47" t="inlineStr">
@@ -71729,6 +76294,36 @@
       <c r="N47" t="n">
         <v>52.66</v>
       </c>
+      <c r="O47" t="n">
+        <v>2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R47" t="n">
+        <v>6</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T47" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -71761,7 +76356,7 @@
           <t>2025-04-25</t>
         </is>
       </c>
-      <c r="G48" t="n">
+      <c r="G48" s="5" t="n">
         <v>2850.37</v>
       </c>
       <c r="I48" t="inlineStr">
@@ -71782,6 +76377,36 @@
       <c r="N48" t="n">
         <v>164.59</v>
       </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R48" t="n">
+        <v>6</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T48" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -71814,7 +76439,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G49" t="n">
+      <c r="G49" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="H49" t="inlineStr">
@@ -71846,6 +76471,36 @@
       <c r="N49" t="n">
         <v>43.6</v>
       </c>
+      <c r="O49" t="n">
+        <v>2</v>
+      </c>
+      <c r="P49" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>6</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -71878,7 +76533,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G50" t="n">
+      <c r="G50" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="H50" t="inlineStr">
@@ -71910,6 +76565,36 @@
       <c r="N50" t="n">
         <v>43.6</v>
       </c>
+      <c r="O50" t="n">
+        <v>2</v>
+      </c>
+      <c r="P50" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>6</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U50" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -71942,7 +76627,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G51" t="n">
+      <c r="G51" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="I51" t="inlineStr">
@@ -71969,6 +76654,36 @@
       <c r="N51" t="n">
         <v>2502.32</v>
       </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
+      <c r="P51" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R51" t="n">
+        <v>6</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T51" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -72001,7 +76716,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G52" t="n">
+      <c r="G52" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="I52" t="inlineStr">
@@ -72022,6 +76737,36 @@
       <c r="N52" t="n">
         <v>51.79</v>
       </c>
+      <c r="O52" t="n">
+        <v>2</v>
+      </c>
+      <c r="P52" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R52" t="n">
+        <v>6</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -72054,7 +76799,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G53" t="n">
+      <c r="G53" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="I53" t="inlineStr">
@@ -72075,6 +76820,36 @@
       <c r="N53" t="n">
         <v>161.86</v>
       </c>
+      <c r="O53" t="n">
+        <v>2</v>
+      </c>
+      <c r="P53" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R53" t="n">
+        <v>6</v>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T53" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -72107,7 +76882,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G54" t="n">
+      <c r="G54" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I54" t="inlineStr">
@@ -72134,6 +76909,36 @@
       <c r="N54" t="n">
         <v>43.6</v>
       </c>
+      <c r="O54" t="n">
+        <v>2</v>
+      </c>
+      <c r="P54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R54" t="n">
+        <v>6</v>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -72166,7 +76971,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G55" t="n">
+      <c r="G55" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I55" t="inlineStr">
@@ -72193,6 +76998,36 @@
       <c r="N55" t="n">
         <v>43.6</v>
       </c>
+      <c r="O55" t="n">
+        <v>2</v>
+      </c>
+      <c r="P55" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R55" t="n">
+        <v>6</v>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -72225,7 +77060,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G56" t="n">
+      <c r="G56" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I56" t="inlineStr">
@@ -72252,6 +77087,36 @@
       <c r="N56" t="n">
         <v>1251.16</v>
       </c>
+      <c r="O56" t="n">
+        <v>2</v>
+      </c>
+      <c r="P56" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R56" t="n">
+        <v>6</v>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -72284,7 +77149,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G57" t="n">
+      <c r="G57" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I57" t="inlineStr">
@@ -72305,6 +77170,36 @@
       <c r="N57" t="n">
         <v>26.76</v>
       </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
+      <c r="P57" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R57" t="n">
+        <v>6</v>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -72337,7 +77232,7 @@
           <t>2025-05-25</t>
         </is>
       </c>
-      <c r="G58" t="n">
+      <c r="G58" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I58" t="inlineStr">
@@ -72358,6 +77253,36 @@
       <c r="N58" t="n">
         <v>83.66</v>
       </c>
+      <c r="O58" t="n">
+        <v>2</v>
+      </c>
+      <c r="P58" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R58" t="n">
+        <v>6</v>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -72390,7 +77315,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G59" t="n">
+      <c r="G59" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="H59" t="inlineStr">
@@ -72422,6 +77347,36 @@
       <c r="N59" t="n">
         <v>43.6</v>
       </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
+      <c r="P59" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R59" t="n">
+        <v>6</v>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -72454,7 +77409,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G60" t="n">
+      <c r="G60" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="H60" t="inlineStr">
@@ -72486,6 +77441,36 @@
       <c r="N60" t="n">
         <v>43.6</v>
       </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R60" t="n">
+        <v>6</v>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -72518,7 +77503,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G61" t="n">
+      <c r="G61" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="I61" t="inlineStr">
@@ -72545,6 +77530,36 @@
       <c r="N61" t="n">
         <v>2502.32</v>
       </c>
+      <c r="O61" t="n">
+        <v>2</v>
+      </c>
+      <c r="P61" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R61" t="n">
+        <v>6</v>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V61" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -72577,7 +77592,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G62" t="n">
+      <c r="G62" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="I62" t="inlineStr">
@@ -72598,6 +77613,36 @@
       <c r="N62" t="n">
         <v>51.79</v>
       </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
+      <c r="P62" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R62" t="n">
+        <v>6</v>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V62" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -72630,7 +77675,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G63" t="n">
+      <c r="G63" s="5" t="n">
         <v>2803.17</v>
       </c>
       <c r="I63" t="inlineStr">
@@ -72651,6 +77696,36 @@
       <c r="N63" t="n">
         <v>161.86</v>
       </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+      <c r="P63" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
+        <v>6</v>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V63" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -72683,7 +77758,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G64" t="n">
+      <c r="G64" s="5" t="n">
         <v>1495.98</v>
       </c>
       <c r="H64" t="inlineStr">
@@ -72715,6 +77790,36 @@
       <c r="N64" t="n">
         <v>43.6</v>
       </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+      <c r="P64" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
+        <v>6</v>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V64" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -72747,7 +77852,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G65" t="n">
+      <c r="G65" s="5" t="n">
         <v>1495.98</v>
       </c>
       <c r="H65" t="inlineStr">
@@ -72779,6 +77884,36 @@
       <c r="N65" t="n">
         <v>43.6</v>
       </c>
+      <c r="O65" t="n">
+        <v>2</v>
+      </c>
+      <c r="P65" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
+        <v>6</v>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -72811,7 +77946,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G66" t="n">
+      <c r="G66" s="5" t="n">
         <v>1495.98</v>
       </c>
       <c r="H66" t="inlineStr">
@@ -72843,6 +77978,36 @@
       <c r="N66" t="n">
         <v>43.6</v>
       </c>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
+      <c r="P66" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R66" t="n">
+        <v>6</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V66" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -72875,7 +78040,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G67" t="n">
+      <c r="G67" s="5" t="n">
         <v>1495.98</v>
       </c>
       <c r="I67" t="inlineStr">
@@ -72902,6 +78067,36 @@
       <c r="N67" t="n">
         <v>1251.16</v>
       </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
+      <c r="P67" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R67" t="n">
+        <v>6</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -72934,7 +78129,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G68" t="n">
+      <c r="G68" s="5" t="n">
         <v>1495.98</v>
       </c>
       <c r="I68" t="inlineStr">
@@ -72955,6 +78150,36 @@
       <c r="N68" t="n">
         <v>27.63</v>
       </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+      <c r="P68" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R68" t="n">
+        <v>6</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V68" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -72987,7 +78212,7 @@
           <t>2025-06-25</t>
         </is>
       </c>
-      <c r="G69" t="n">
+      <c r="G69" s="5" t="n">
         <v>1495.98</v>
       </c>
       <c r="I69" t="inlineStr">
@@ -73008,6 +78233,36 @@
       <c r="N69" t="n">
         <v>86.39</v>
       </c>
+      <c r="O69" t="n">
+        <v>2</v>
+      </c>
+      <c r="P69" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R69" t="n">
+        <v>6</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -73040,7 +78295,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G70" t="n">
+      <c r="G70" s="5" t="n">
         <v>2944.77</v>
       </c>
       <c r="H70" t="inlineStr">
@@ -73072,6 +78327,36 @@
       <c r="N70" t="n">
         <v>43.6</v>
       </c>
+      <c r="O70" t="n">
+        <v>2</v>
+      </c>
+      <c r="P70" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R70" t="n">
+        <v>6</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V70" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -73104,7 +78389,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G71" t="n">
+      <c r="G71" s="5" t="n">
         <v>2944.77</v>
       </c>
       <c r="H71" t="inlineStr">
@@ -73136,6 +78421,36 @@
       <c r="N71" t="n">
         <v>43.6</v>
       </c>
+      <c r="O71" t="n">
+        <v>2</v>
+      </c>
+      <c r="P71" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>6</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -73168,7 +78483,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G72" t="n">
+      <c r="G72" s="5" t="n">
         <v>2944.77</v>
       </c>
       <c r="H72" t="inlineStr">
@@ -73200,6 +78515,36 @@
       <c r="N72" t="n">
         <v>43.6</v>
       </c>
+      <c r="O72" t="n">
+        <v>2</v>
+      </c>
+      <c r="P72" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>6</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -73232,7 +78577,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G73" t="n">
+      <c r="G73" s="5" t="n">
         <v>2944.77</v>
       </c>
       <c r="H73" t="inlineStr">
@@ -73264,6 +78609,36 @@
       <c r="N73" t="n">
         <v>43.6</v>
       </c>
+      <c r="O73" t="n">
+        <v>2</v>
+      </c>
+      <c r="P73" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>6</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -73296,7 +78671,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G74" t="n">
+      <c r="G74" s="5" t="n">
         <v>2944.77</v>
       </c>
       <c r="H74" t="inlineStr">
@@ -73328,6 +78703,36 @@
       <c r="N74" t="n">
         <v>43.6</v>
       </c>
+      <c r="O74" t="n">
+        <v>2</v>
+      </c>
+      <c r="P74" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>6</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -73360,7 +78765,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G75" t="n">
+      <c r="G75" s="5" t="n">
         <v>2944.77</v>
       </c>
       <c r="I75" t="inlineStr">
@@ -73387,6 +78792,36 @@
       <c r="N75" t="n">
         <v>2502.32</v>
       </c>
+      <c r="O75" t="n">
+        <v>2</v>
+      </c>
+      <c r="P75" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>6</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -73419,7 +78854,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G76" t="n">
+      <c r="G76" s="5" t="n">
         <v>2944.77</v>
       </c>
       <c r="I76" t="inlineStr">
@@ -73440,6 +78875,36 @@
       <c r="N76" t="n">
         <v>54.4</v>
       </c>
+      <c r="O76" t="n">
+        <v>2</v>
+      </c>
+      <c r="P76" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>6</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -73472,7 +78937,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G77" t="n">
+      <c r="G77" s="5" t="n">
         <v>2944.77</v>
       </c>
       <c r="I77" t="inlineStr">
@@ -73493,6 +78958,36 @@
       <c r="N77" t="n">
         <v>170.05</v>
       </c>
+      <c r="O77" t="n">
+        <v>2</v>
+      </c>
+      <c r="P77" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>6</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -73525,7 +79020,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G78" t="n">
+      <c r="G78" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="H78" t="inlineStr">
@@ -73557,6 +79052,36 @@
       <c r="N78" t="n">
         <v>43.6</v>
       </c>
+      <c r="O78" t="n">
+        <v>2</v>
+      </c>
+      <c r="P78" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>6</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -73589,7 +79114,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G79" t="n">
+      <c r="G79" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="H79" t="inlineStr">
@@ -73621,6 +79146,36 @@
       <c r="N79" t="n">
         <v>43.6</v>
       </c>
+      <c r="O79" t="n">
+        <v>2</v>
+      </c>
+      <c r="P79" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>6</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -73653,7 +79208,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G80" t="n">
+      <c r="G80" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I80" t="inlineStr">
@@ -73680,6 +79235,36 @@
       <c r="N80" t="n">
         <v>1251.16</v>
       </c>
+      <c r="O80" t="n">
+        <v>2</v>
+      </c>
+      <c r="P80" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>6</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -73712,7 +79297,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G81" t="n">
+      <c r="G81" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I81" t="inlineStr">
@@ -73733,6 +79318,36 @@
       <c r="N81" t="n">
         <v>26.76</v>
       </c>
+      <c r="O81" t="n">
+        <v>2</v>
+      </c>
+      <c r="P81" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>6</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -73765,7 +79380,7 @@
           <t>2025-07-25</t>
         </is>
       </c>
-      <c r="G82" t="n">
+      <c r="G82" s="5" t="n">
         <v>1448.78</v>
       </c>
       <c r="I82" t="inlineStr">
@@ -73786,6 +79401,36 @@
       <c r="N82" t="n">
         <v>83.66</v>
       </c>
+      <c r="O82" t="n">
+        <v>2</v>
+      </c>
+      <c r="P82" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>6</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -73818,7 +79463,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G83" t="n">
+      <c r="G83" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="H83" t="inlineStr">
@@ -73850,6 +79495,36 @@
       <c r="N83" t="n">
         <v>43.6</v>
       </c>
+      <c r="O83" t="n">
+        <v>2</v>
+      </c>
+      <c r="P83" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>6</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -73882,7 +79557,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G84" t="n">
+      <c r="G84" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="H84" t="inlineStr">
@@ -73914,6 +79589,36 @@
       <c r="N84" t="n">
         <v>43.6</v>
       </c>
+      <c r="O84" t="n">
+        <v>2</v>
+      </c>
+      <c r="P84" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>6</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U84" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -73946,7 +79651,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G85" t="n">
+      <c r="G85" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="H85" t="inlineStr">
@@ -73978,6 +79683,36 @@
       <c r="N85" t="n">
         <v>43.6</v>
       </c>
+      <c r="O85" t="n">
+        <v>2</v>
+      </c>
+      <c r="P85" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>6</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -74010,7 +79745,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G86" t="n">
+      <c r="G86" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="H86" t="inlineStr">
@@ -74042,6 +79777,36 @@
       <c r="N86" t="n">
         <v>43.6</v>
       </c>
+      <c r="O86" t="n">
+        <v>2</v>
+      </c>
+      <c r="P86" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>6</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -74074,7 +79839,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G87" t="n">
+      <c r="G87" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="I87" t="inlineStr">
@@ -74101,6 +79866,36 @@
       <c r="N87" t="n">
         <v>2502.32</v>
       </c>
+      <c r="O87" t="n">
+        <v>2</v>
+      </c>
+      <c r="P87" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>6</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -74133,7 +79928,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G88" t="n">
+      <c r="G88" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="I88" t="inlineStr">
@@ -74154,6 +79949,36 @@
       <c r="N88" t="n">
         <v>53.53</v>
       </c>
+      <c r="O88" t="n">
+        <v>2</v>
+      </c>
+      <c r="P88" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>6</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -74186,7 +80011,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G89" t="n">
+      <c r="G89" s="5" t="n">
         <v>2897.57</v>
       </c>
       <c r="I89" t="inlineStr">
@@ -74207,6 +80032,36 @@
       <c r="N89" t="n">
         <v>167.32</v>
       </c>
+      <c r="O89" t="n">
+        <v>2</v>
+      </c>
+      <c r="P89" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>6</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U89" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -74239,7 +80094,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G90" t="n">
+      <c r="G90" s="5" t="n">
         <v>1543.18</v>
       </c>
       <c r="H90" t="inlineStr">
@@ -74271,6 +80126,36 @@
       <c r="N90" t="n">
         <v>43.6</v>
       </c>
+      <c r="O90" t="n">
+        <v>2</v>
+      </c>
+      <c r="P90" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>6</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U90" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -74303,7 +80188,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G91" t="n">
+      <c r="G91" s="5" t="n">
         <v>1543.18</v>
       </c>
       <c r="H91" t="inlineStr">
@@ -74335,6 +80220,36 @@
       <c r="N91" t="n">
         <v>43.6</v>
       </c>
+      <c r="O91" t="n">
+        <v>2</v>
+      </c>
+      <c r="P91" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>6</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -74367,7 +80282,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G92" t="n">
+      <c r="G92" s="5" t="n">
         <v>1543.18</v>
       </c>
       <c r="H92" t="inlineStr">
@@ -74399,6 +80314,36 @@
       <c r="N92" t="n">
         <v>43.6</v>
       </c>
+      <c r="O92" t="n">
+        <v>2</v>
+      </c>
+      <c r="P92" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>6</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -74431,7 +80376,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G93" t="n">
+      <c r="G93" s="5" t="n">
         <v>1543.18</v>
       </c>
       <c r="H93" t="inlineStr">
@@ -74463,6 +80408,36 @@
       <c r="N93" t="n">
         <v>43.6</v>
       </c>
+      <c r="O93" t="n">
+        <v>2</v>
+      </c>
+      <c r="P93" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>6</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -74495,7 +80470,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G94" t="n">
+      <c r="G94" s="5" t="n">
         <v>1543.18</v>
       </c>
       <c r="I94" t="inlineStr">
@@ -74522,6 +80497,36 @@
       <c r="N94" t="n">
         <v>1251.16</v>
       </c>
+      <c r="O94" t="n">
+        <v>2</v>
+      </c>
+      <c r="P94" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>6</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -74554,7 +80559,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G95" t="n">
+      <c r="G95" s="5" t="n">
         <v>1543.18</v>
       </c>
       <c r="I95" t="inlineStr">
@@ -74575,6 +80580,36 @@
       <c r="N95" t="n">
         <v>28.5</v>
       </c>
+      <c r="O95" t="n">
+        <v>2</v>
+      </c>
+      <c r="P95" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>6</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -74607,7 +80642,7 @@
           <t>2025-08-25</t>
         </is>
       </c>
-      <c r="G96" t="n">
+      <c r="G96" s="5" t="n">
         <v>1543.18</v>
       </c>
       <c r="I96" t="inlineStr">
@@ -74627,6 +80662,36 @@
       </c>
       <c r="N96" t="n">
         <v>89.12</v>
+      </c>
+      <c r="O96" t="n">
+        <v>2</v>
+      </c>
+      <c r="P96" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>Front Loader</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>6</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>6x per week</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="U96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>2×10YD Front Loaders @ 6x/week</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -74643,7 +80708,7 @@
   <dimension ref="A1:Z43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:XFD1048576"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -74654,7 +80719,7 @@
     <col width="15.5546875" bestFit="1" customWidth="1" min="4" max="4"/>
     <col width="14.88671875" bestFit="1" customWidth="1" min="5" max="5"/>
     <col width="11.6640625" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="14.6640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="14.6640625" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
     <col width="10.33203125" bestFit="1" customWidth="1" min="8" max="8"/>
     <col width="11.6640625" bestFit="1" customWidth="1" min="9" max="9"/>
     <col width="29.109375" bestFit="1" customWidth="1" min="10" max="10"/>
@@ -74707,7 +80772,7 @@
           <t>Invoice Date</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="6" t="inlineStr">
         <is>
           <t>Invoice Amount</t>
         </is>
@@ -74835,7 +80900,7 @@
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="5" t="n">
         <v>9734.09</v>
       </c>
       <c r="H2" t="inlineStr">
@@ -74939,7 +81004,7 @@
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="G3" s="5" t="n">
         <v>9734.09</v>
       </c>
       <c r="H3" t="inlineStr">
@@ -75038,7 +81103,7 @@
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G4" s="5" t="n">
         <v>9734.09</v>
       </c>
       <c r="H4" t="inlineStr">
@@ -75137,7 +81202,7 @@
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="G5" s="5" t="n">
         <v>9734.09</v>
       </c>
       <c r="H5" t="inlineStr">
@@ -75236,7 +81301,7 @@
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="G6" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H6" t="inlineStr">
@@ -75335,7 +81400,7 @@
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="G7" t="n">
+      <c r="G7" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H7" t="inlineStr">
@@ -75434,7 +81499,7 @@
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="G8" t="n">
+      <c r="G8" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H8" t="inlineStr">
@@ -75533,7 +81598,7 @@
           <t>2025-02-01</t>
         </is>
       </c>
-      <c r="G9" t="n">
+      <c r="G9" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H9" t="inlineStr">
@@ -75632,7 +81697,7 @@
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G10" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H10" t="inlineStr">
@@ -75731,7 +81796,7 @@
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="G11" t="n">
+      <c r="G11" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H11" t="inlineStr">
@@ -75830,7 +81895,7 @@
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="G12" t="n">
+      <c r="G12" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H12" t="inlineStr">
@@ -75929,7 +81994,7 @@
           <t>2025-03-01</t>
         </is>
       </c>
-      <c r="G13" t="n">
+      <c r="G13" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H13" t="inlineStr">
@@ -76028,7 +82093,7 @@
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="G14" t="n">
+      <c r="G14" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H14" t="inlineStr">
@@ -76127,7 +82192,7 @@
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="G15" t="n">
+      <c r="G15" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H15" t="inlineStr">
@@ -76226,7 +82291,7 @@
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="G16" t="n">
+      <c r="G16" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H16" t="inlineStr">
@@ -76325,7 +82390,7 @@
           <t>2025-04-01</t>
         </is>
       </c>
-      <c r="G17" t="n">
+      <c r="G17" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H17" t="inlineStr">
@@ -76424,7 +82489,7 @@
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="G18" t="n">
+      <c r="G18" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H18" t="inlineStr">
@@ -76528,7 +82593,7 @@
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="G19" t="n">
+      <c r="G19" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H19" t="inlineStr">
@@ -76627,7 +82692,7 @@
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G20" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H20" t="inlineStr">
@@ -76731,7 +82796,7 @@
           <t>2025-05-01</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G21" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H21" t="inlineStr">
@@ -76830,7 +82895,7 @@
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G22" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H22" t="inlineStr">
@@ -76934,7 +82999,7 @@
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G23" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H23" t="inlineStr">
@@ -77033,7 +83098,7 @@
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G24" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H24" t="inlineStr">
@@ -77137,7 +83202,7 @@
           <t>2025-06-01</t>
         </is>
       </c>
-      <c r="G25" t="n">
+      <c r="G25" s="5" t="n">
         <v>11186.23</v>
       </c>
       <c r="H25" t="inlineStr">
@@ -77236,7 +83301,7 @@
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="G26" t="n">
+      <c r="G26" s="5" t="n">
         <v>11279.6</v>
       </c>
       <c r="H26" t="inlineStr">
@@ -77340,7 +83405,7 @@
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="G27" t="n">
+      <c r="G27" s="5" t="n">
         <v>11279.6</v>
       </c>
       <c r="H27" t="inlineStr">
@@ -77439,7 +83504,7 @@
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="G28" t="n">
+      <c r="G28" s="5" t="n">
         <v>11279.6</v>
       </c>
       <c r="H28" t="inlineStr">
@@ -77543,7 +83608,7 @@
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="G29" t="n">
+      <c r="G29" s="5" t="n">
         <v>11279.6</v>
       </c>
       <c r="H29" t="inlineStr">
@@ -77642,7 +83707,7 @@
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="G30" t="n">
+      <c r="G30" s="5" t="n">
         <v>11279.6</v>
       </c>
       <c r="H30" t="inlineStr">
@@ -77741,7 +83806,7 @@
           <t>2025-07-01</t>
         </is>
       </c>
-      <c r="G31" t="n">
+      <c r="G31" s="5" t="n">
         <v>11279.6</v>
       </c>
       <c r="H31" t="inlineStr">
@@ -77840,7 +83905,7 @@
           <t>2025-08-01</t>
         </is>
       </c>
-      <c r="G32" t="n">
+      <c r="G32" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H32" t="inlineStr">
@@ -77944,7 +84009,7 @@
           <t>2025-08-01</t>
         </is>
       </c>
-      <c r="G33" t="n">
+      <c r="G33" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H33" t="inlineStr">
@@ -78048,7 +84113,7 @@
           <t>2025-08-01</t>
         </is>
       </c>
-      <c r="G34" t="n">
+      <c r="G34" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H34" t="inlineStr">
@@ -78152,7 +84217,7 @@
           <t>2025-08-01</t>
         </is>
       </c>
-      <c r="G35" t="n">
+      <c r="G35" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H35" t="inlineStr">
@@ -78256,7 +84321,7 @@
           <t>2025-08-01</t>
         </is>
       </c>
-      <c r="G36" t="n">
+      <c r="G36" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H36" t="inlineStr">
@@ -78360,7 +84425,7 @@
           <t>2025-08-01</t>
         </is>
       </c>
-      <c r="G37" t="n">
+      <c r="G37" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H37" t="inlineStr">
@@ -78464,7 +84529,7 @@
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="G38" t="n">
+      <c r="G38" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H38" t="inlineStr">
@@ -78563,7 +84628,7 @@
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="G39" t="n">
+      <c r="G39" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H39" t="inlineStr">
@@ -78662,7 +84727,7 @@
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="G40" t="n">
+      <c r="G40" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H40" t="inlineStr">
@@ -78761,7 +84826,7 @@
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="G41" t="n">
+      <c r="G41" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H41" t="inlineStr">
@@ -78860,7 +84925,7 @@
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="G42" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H42" t="inlineStr">
@@ -78959,7 +85024,7 @@
           <t>2025-10-01</t>
         </is>
       </c>
-      <c r="G43" t="n">
+      <c r="G43" s="5" t="n">
         <v>11105.92</v>
       </c>
       <c r="H43" t="inlineStr">

--- a/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
+++ b/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
@@ -37953,7 +37953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1048576"/>
@@ -47535,7 +47535,6 @@
         </is>
       </c>
     </row>
-    <row r="106"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -69463,7 +69462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7:E7"/>
@@ -69504,6 +69503,31 @@
           <t>Property Type</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Container Count</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Service Frequency</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Monthly Yards</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>YPD</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -69529,6 +69553,25 @@
           <t>Garden Style</t>
         </is>
       </c>
+      <c r="F2" t="n">
+        <v>2</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10 YD</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>6x/week</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1.67</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -69554,6 +69597,25 @@
           <t>Garden Style</t>
         </is>
       </c>
+      <c r="F3" t="n">
+        <v>15</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8 YD</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>1437.56</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.46</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -69579,6 +69641,25 @@
           <t>Garden Style</t>
         </is>
       </c>
+      <c r="F4" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8 YD</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>1091.16</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2.41</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -69604,6 +69685,25 @@
           <t>Garden Style</t>
         </is>
       </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8 YD</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>4x/week</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>727.4400000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -69629,6 +69729,25 @@
           <t>Garden Style</t>
         </is>
       </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8 YD</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>623.52</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -69654,6 +69773,25 @@
           <t>Garden Style</t>
         </is>
       </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>40 CY</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2.4x/week (on-call)</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>412</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -69679,6 +69817,25 @@
           <t>Garden Style</t>
         </is>
       </c>
+      <c r="F8" t="n">
+        <v>2</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6 YD</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>155.88</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -69704,6 +69861,25 @@
           <t>Garden Style</t>
         </is>
       </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>4 YD</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2x/week</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>138.56</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.5600000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -69729,6 +69905,25 @@
           <t>Garden Style</t>
         </is>
       </c>
+      <c r="F10" t="n">
+        <v>16</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>600.63</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -69753,6 +69948,25 @@
         <is>
           <t>Garden Style</t>
         </is>
+      </c>
+      <c r="F11" t="n">
+        <v>8</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>493.62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="12">
@@ -71075,7 +71289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -71128,6 +71342,31 @@
           <t>Data Source</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Containers</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Monthly Yards</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>YPD</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Performance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -71163,6 +71402,25 @@
           <t>Confirmed</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6 YD</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>155.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -71198,6 +71456,25 @@
           <t>Confirmed</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>4 YD</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>138.56</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -71233,6 +71510,25 @@
           <t>Confirmed</t>
         </is>
       </c>
+      <c r="H4" t="n">
+        <v>16</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>600.63</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -71268,6 +71564,25 @@
           <t>Confirmed</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Mixed</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>493.62</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -71303,6 +71618,25 @@
           <t>Needs Survey</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10 YD</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>519.6</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -71338,6 +71672,25 @@
           <t>Needs Survey</t>
         </is>
       </c>
+      <c r="H7" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>8 YD</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>1437.56</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -71373,6 +71726,25 @@
           <t>Needs Survey</t>
         </is>
       </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>8 YD</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>1091.16</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -71408,6 +71780,25 @@
           <t>Needs Survey</t>
         </is>
       </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>8 YD</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>727.4400000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -71443,6 +71834,25 @@
           <t>Needs Survey</t>
         </is>
       </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>8 YD</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>623.52</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -71478,7 +71888,27 @@
           <t>Needs Survey</t>
         </is>
       </c>
-    </row>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>40 CY</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>412</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Excellent</t>
+        </is>
+      </c>
+    </row>
+    <row r="12"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
+++ b/Portfolio_Reports/MASTER_Portfolio_Complete_Data.xlsx
@@ -69638,7 +69638,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Garden Style</t>
+          <t>8x 8YD + 2x 10YD</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -69686,16 +69686,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>8 YD</t>
+          <t>30 YD</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4x/week</t>
+          <t>On-call (varies)</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -69721,12 +69721,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Compactor</t>
+          <t>Dumpster</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Garden Style</t>
+          <t>Mixed (8YD, 6YD, 4YD)</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -69739,7 +69739,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3x/week</t>
+          <t>4x/week</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -69774,16 +69774,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>40 CY</t>
+          <t>30 CY</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2.4x/week (on-call)</t>
+          <t>On-call (2-3x/week)</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -69809,7 +69809,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Compactor</t>
+          <t>Dumpster</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -69941,16 +69941,16 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dumpster</t>
+          <t>Mixed</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Garden Style</t>
+          <t>Mixed (3YD, 4YD)</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -69959,7 +69959,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>3x/week</t>
+          <t>1x-3x/week</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -70340,7 +70340,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1:E1048576"/>
@@ -70393,14 +70393,14 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C2" s="5" t="n">
-        <v>67324.17</v>
-      </c>
-      <c r="D2" s="5" t="n">
-        <v>7534.366672058823</v>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>10.53757576511724</v>
+      <c r="C2" t="n">
+        <v>65924.17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6592.416999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>92.20163636363637</v>
       </c>
     </row>
     <row r="3">
@@ -70414,14 +70414,14 @@
           <t>extra_pickup</t>
         </is>
       </c>
-      <c r="C3" s="5" t="n">
-        <v>33813.83</v>
-      </c>
-      <c r="D3" s="5" t="n">
-        <v>3784.165386764706</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>5.29253900246812</v>
+      <c r="C3" t="n">
+        <v>980</v>
+      </c>
+      <c r="D3" t="n">
+        <v>98</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.370629370629371</v>
       </c>
     </row>
     <row r="4">
@@ -70435,14 +70435,14 @@
           <t>overage</t>
         </is>
       </c>
-      <c r="C4" s="5" t="n">
-        <v>20171.6</v>
-      </c>
-      <c r="D4" s="5" t="n">
-        <v>2257.439352941176</v>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>3.157257836281365</v>
+      <c r="C4" t="n">
+        <v>420</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5874125874125874</v>
       </c>
     </row>
     <row r="5">
@@ -70456,14 +70456,14 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C5" s="5" t="n">
-        <v>99156.67999999999</v>
-      </c>
-      <c r="D5" s="5" t="n">
-        <v>11056.15142564103</v>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>26.57728708086785</v>
+      <c r="C5" t="n">
+        <v>91515.45000000001</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10168.38333333334</v>
+      </c>
+      <c r="E5" t="n">
+        <v>219.9890625</v>
       </c>
     </row>
     <row r="6">
@@ -70477,14 +70477,14 @@
           <t>extra_pickup</t>
         </is>
       </c>
-      <c r="C6" s="5" t="n">
-        <v>11279.6</v>
-      </c>
-      <c r="D6" s="5" t="n">
-        <v>1257.696058608059</v>
-      </c>
-      <c r="E6" s="5" t="n">
-        <v>3.023307833192449</v>
+      <c r="C6" t="n">
+        <v>86.25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.583333333333334</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.2073317307692308</v>
       </c>
     </row>
     <row r="7">
@@ -70498,14 +70498,14 @@
           <t>tax</t>
         </is>
       </c>
-      <c r="C7" s="5" t="n">
-        <v>99156.67999999999</v>
-      </c>
-      <c r="D7" s="5" t="n">
-        <v>11056.15142564103</v>
-      </c>
-      <c r="E7" s="5" t="n">
-        <v>26.57728708086785</v>
+      <c r="C7" t="n">
+        <v>7556.98</v>
+      </c>
+      <c r="D7" t="n">
+        <v>839.6644444444444</v>
+      </c>
+      <c r="E7" t="n">
+        <v>18.16581730769231</v>
       </c>
     </row>
     <row r="8">
@@ -70519,14 +70519,14 @@
           <t>admin</t>
         </is>
       </c>
-      <c r="C8" s="5" t="n">
-        <v>54439.09</v>
-      </c>
-      <c r="D8" s="5" t="n">
-        <v>6819.448146502059</v>
-      </c>
-      <c r="E8" s="5" t="n">
-        <v>15.05396941832684</v>
+      <c r="C8" t="n">
+        <v>39</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.08609271523178808</v>
       </c>
     </row>
     <row r="9">
@@ -70540,14 +70540,14 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>57064.64</v>
-      </c>
-      <c r="D9" s="5" t="n">
-        <v>7148.344204115227</v>
-      </c>
-      <c r="E9" s="5" t="n">
-        <v>15.78000928060756</v>
+      <c r="C9" t="n">
+        <v>53420.55999999999</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3561.370666666666</v>
+      </c>
+      <c r="E9" t="n">
+        <v>117.9261810154525</v>
       </c>
     </row>
     <row r="10">
@@ -70561,14 +70561,14 @@
           <t>franchise_fee</t>
         </is>
       </c>
-      <c r="C10" s="5" t="n">
-        <v>54666.45</v>
-      </c>
-      <c r="D10" s="5" t="n">
-        <v>6847.928962962964</v>
-      </c>
-      <c r="E10" s="5" t="n">
-        <v>15.11684097784319</v>
+      <c r="C10" t="n">
+        <v>1405.51</v>
+      </c>
+      <c r="D10" t="n">
+        <v>93.70066666666665</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.102671081677704</v>
       </c>
     </row>
     <row r="11">
@@ -70582,14 +70582,14 @@
           <t>overage</t>
         </is>
       </c>
-      <c r="C11" s="5" t="n">
-        <v>227.36</v>
-      </c>
-      <c r="D11" s="5" t="n">
-        <v>28.48081646090535</v>
-      </c>
-      <c r="E11" s="5" t="n">
-        <v>0.06287155951634731</v>
+      <c r="C11" t="n">
+        <v>200</v>
+      </c>
+      <c r="D11" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4415011037527594</v>
       </c>
     </row>
     <row r="12">
@@ -70603,14 +70603,14 @@
           <t>tax</t>
         </is>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>57292</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>7176.825020576132</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>15.84288084012391</v>
+      <c r="C12" t="n">
+        <v>4157.78</v>
+      </c>
+      <c r="D12" t="n">
+        <v>277.1853333333333</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9.178322295805739</v>
       </c>
     </row>
     <row r="13">
@@ -70624,14 +70624,14 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C13" s="5" t="n">
-        <v>34478.73</v>
-      </c>
-      <c r="D13" s="5" t="n">
-        <v>4950.625194339624</v>
-      </c>
-      <c r="E13" s="5" t="n">
-        <v>15.86738844339623</v>
+      <c r="C13" t="n">
+        <v>29890.44</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3736.305</v>
+      </c>
+      <c r="E13" t="n">
+        <v>95.80269230769231</v>
       </c>
     </row>
     <row r="14">
@@ -70645,14 +70645,14 @@
           <t>other</t>
         </is>
       </c>
-      <c r="C14" s="5" t="n">
-        <v>3959.88</v>
-      </c>
-      <c r="D14" s="5" t="n">
-        <v>568.5789962264151</v>
-      </c>
-      <c r="E14" s="5" t="n">
-        <v>1.822368577648766</v>
+      <c r="C14" t="n">
+        <v>-4278.17</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-534.77125</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-13.71208333333333</v>
       </c>
     </row>
     <row r="15">
@@ -70666,14 +70666,14 @@
           <t>overage</t>
         </is>
       </c>
-      <c r="C15" s="5" t="n">
-        <v>33173.92</v>
-      </c>
-      <c r="D15" s="5" t="n">
-        <v>4763.274173584906</v>
-      </c>
-      <c r="E15" s="5" t="n">
-        <v>15.26690440251572</v>
+      <c r="C15" t="n">
+        <v>1960.4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>245.05</v>
+      </c>
+      <c r="E15" t="n">
+        <v>6.283333333333332</v>
       </c>
     </row>
     <row r="16">
@@ -70687,14 +70687,14 @@
           <t>tax</t>
         </is>
       </c>
-      <c r="C16" s="5" t="n">
-        <v>34478.73</v>
-      </c>
-      <c r="D16" s="5" t="n">
-        <v>4950.625194339624</v>
-      </c>
-      <c r="E16" s="5" t="n">
-        <v>15.86738844339623</v>
+      <c r="C16" t="n">
+        <v>2627.89</v>
+      </c>
+      <c r="D16" t="n">
+        <v>328.48625</v>
+      </c>
+      <c r="E16" t="n">
+        <v>8.42272435897436</v>
       </c>
     </row>
     <row r="17">
@@ -70708,14 +70708,14 @@
           <t>base</t>
         </is>
       </c>
-      <c r="C17" s="5" t="n">
-        <v>31168.6</v>
-      </c>
-      <c r="D17" s="5" t="n">
-        <v>5241.835270718232</v>
-      </c>
-      <c r="E17" s="5" t="n">
-        <v>17.0189456841501</v>
+      <c r="C17" t="n">
+        <v>18909.69</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2363.71125</v>
+      </c>
+      <c r="E17" t="n">
+        <v>61.39509740259741</v>
       </c>
     </row>
     <row r="18">
@@ -70729,14 +70729,14 @@
           <t>extra_pickup</t>
         </is>
       </c>
-      <c r="C18" s="5" t="n">
-        <v>12630.86</v>
-      </c>
-      <c r="D18" s="5" t="n">
-        <v>2124.217560220995</v>
-      </c>
-      <c r="E18" s="5" t="n">
-        <v>6.896810260457775</v>
+      <c r="C18" t="n">
+        <v>6871.800000000002</v>
+      </c>
+      <c r="D18" t="n">
+        <v>858.9750000000003</v>
+      </c>
+      <c r="E18" t="n">
+        <v>22.31103896103897</v>
       </c>
     </row>
     <row r="19">
@@ -70750,14 +70750,14 @@
           <t>other</t>
         </is>
       </c>
-      <c r="C19" s="5" t="n">
-        <v>8044.36</v>
-      </c>
-      <c r="D19" s="5" t="n">
-        <v>1352.874687292817</v>
-      </c>
-      <c r="E19" s="5" t="n">
-        <v>4.392450283418239</v>
+      <c r="C19" t="n">
+        <v>-7101.410000000001</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-887.6762500000001</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-23.05652597402598</v>
       </c>
     </row>
     <row r="20">
@@ -70771,182 +70771,14 @@
           <t>tax</t>
         </is>
       </c>
-      <c r="C20" s="5" t="n">
-        <v>31168.6</v>
-      </c>
-      <c r="D20" s="5" t="n">
-        <v>5241.835270718232</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>17.0189456841501</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>The Club at Millenia</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Container Rental</t>
-        </is>
-      </c>
-      <c r="C21" s="5" t="n">
-        <v>10234.8</v>
-      </c>
-      <c r="D21" s="5" t="n">
-        <v>2036.25694117647</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>3.636173109243698</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>The Club at Millenia</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Bulk/Extra Pickups</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="n">
-        <v>6414.24</v>
-      </c>
-      <c r="D22" s="5" t="n">
-        <v>1276.140298039216</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>2.278821960784314</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>The Club at Millenia</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Other Services</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="n">
-        <v>27387.16</v>
-      </c>
-      <c r="D23" s="5" t="n">
-        <v>5448.791832679741</v>
-      </c>
-      <c r="E23" s="5" t="n">
-        <v>9.729985415499531</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>The Club at Millenia</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Disposal</t>
-        </is>
-      </c>
-      <c r="C24" s="5" t="n">
-        <v>26024.96</v>
-      </c>
-      <c r="D24" s="5" t="n">
-        <v>5177.776355555556</v>
-      </c>
-      <c r="E24" s="5" t="n">
-        <v>9.246029206349206</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Mandarina</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>General Waste Service</t>
-        </is>
-      </c>
-      <c r="C25" s="5" t="n">
-        <v>34460.72</v>
-      </c>
-      <c r="D25" s="5" t="n">
-        <v>2997.098048</v>
-      </c>
-      <c r="E25" s="5" t="n">
-        <v>16.65054471111111</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Pavilions at Arrowhead</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>General Waste Service</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="n">
-        <v>42323.46000000001</v>
-      </c>
-      <c r="D26" s="5" t="n">
-        <v>3845.749619104478</v>
-      </c>
-      <c r="E26" s="5" t="n">
-        <v>15.50705491574386</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Springs at Alta Mesa</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>General Waste Service</t>
-        </is>
-      </c>
-      <c r="C27" s="5" t="n">
-        <v>192171.15</v>
-      </c>
-      <c r="D27" s="5" t="n">
-        <v>17461.76061492537</v>
-      </c>
-      <c r="E27" s="5" t="n">
-        <v>87.30880307462687</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Tempe Vista</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>General Waste Service</t>
-        </is>
-      </c>
-      <c r="C28" s="5" t="n">
-        <v>33738.18</v>
-      </c>
-      <c r="D28" s="5" t="n">
-        <v>3074.820955688623</v>
-      </c>
-      <c r="E28" s="5" t="n">
-        <v>16.53129546069152</v>
+      <c r="C20" t="n">
+        <v>2136.09</v>
+      </c>
+      <c r="D20" t="n">
+        <v>267.01125</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6.935357142857144</v>
       </c>
     </row>
   </sheetData>
@@ -70960,7 +70792,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
@@ -71011,45 +70843,45 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tempe Vista</t>
+          <t>Bella Mirage</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dumpster</t>
+          <t>Dumpster (FEL)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4 yards</t>
+          <t>8 YD</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3x per week</t>
+          <t>4x/week</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tempe Vista</t>
+          <t>Bella Mirage</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dumpster</t>
+          <t>Dumpster (FEL)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6 yards</t>
+          <t>6 YD</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -71057,7 +70889,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3x per week</t>
+          <t>4x/week</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -71067,17 +70899,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Tempe Vista</t>
+          <t>Bella Mirage</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dumpster</t>
+          <t>Dumpster (FEL)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8 yards</t>
+          <t>4 YD</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -71085,11 +70917,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3x per week</t>
+          <t>4x/week</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -71105,7 +70937,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6 yards</t>
+          <t>6 YD</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -71113,7 +70945,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3x per week</t>
+          <t>3x/week</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -71123,136 +70955,141 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Springs at Alta Mesa</t>
+          <t>McCord Park FL</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Dumpster</t>
+          <t>Dumpster (FEL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>6 yards</t>
+          <t>8 YD</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3x per week</t>
+          <t>3x/week</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Springs at Alta Mesa</t>
+          <t>Orion McKinney</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dumpster</t>
+          <t>Dumpster (FEL)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4 yards</t>
+          <t>10 YD</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3x per week</t>
+          <t>3x/week</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Springs at Alta Mesa</t>
+          <t>Orion McKinney</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cart</t>
+          <t>Dumpster (FEL)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>90 gallons</t>
+          <t>8 YD</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3x per week</t>
+          <t>3x/week</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Springs at Alta Mesa</t>
+          <t>Orion Prosper</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Bulk</t>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>10 YD</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Weekly (Thursday)</t>
+          <t>6x/week</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pavilions at Arrowhead</t>
+          <t>Orion Prosper Lakes</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dumpster</t>
+          <t>Compactor</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4 yards</t>
+          <t>30 CY</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2x per week</t>
+          <t>On-call (2-3x/week avg)</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>16</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -71263,7 +71100,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bulk</t>
+          <t>Bulk Service</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -71276,6 +71113,253 @@
       </c>
       <c r="F11" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Pavilions at Arrowhead</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dumpster</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4 YD</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2x/week</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Springs at Alta Mesa</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dumpster</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6 YD</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>5</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Springs at Alta Mesa</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dumpster</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4 YD</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Springs at Alta Mesa</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Cart</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>90 gallon</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Springs at Alta Mesa</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Bulk Service</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Weekly (Thursday)</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Tempe Vista</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dumpster (FEL)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4 YD</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1x/week</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Tempe Vista</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dumpster (FEL)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>3 YD</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tempe Vista</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Dumpster (FEL)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4 YD</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>5</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>3x/week</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>The Club at Millenia</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Compactor</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>30 YD</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>On-call (varies)</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -71289,7 +71373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
@@ -71908,7 +71992,6 @@
         </is>
       </c>
     </row>
-    <row r="12"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -72020,19 +72103,19 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Yes (per T&amp;C)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>90 days (review needed)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>TBD - Review Contract</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>131941 The club at millenia_05252021113150 (2) (1).pdf</t>
@@ -72040,7 +72123,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Review Needed - May be Expired</t>
+          <t>Expired - Needs Review</t>
         </is>
       </c>
     </row>
@@ -72057,7 +72140,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04/20/2020</t>
+          <t>04/01/2020</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -72067,24 +72150,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>04/20/2023</t>
+          <t>04/01/2023</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>Yes - 12 month terms</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>90 days (min), 180 days (max)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>TBD - Review Contract</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>Bella Mirage Waste Mgmt Contract 4.20 for 3 yrs.pdf</t>
@@ -72092,14 +72175,14 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Review Needed - May be Expired</t>
+          <t>Active - Contract on File</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Orion Prosper Lakes (Little Elm)</t>
+          <t>Orion Prosper Lakes</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -72114,29 +72197,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>TBD - Review Contract</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>TBD - Review Contract</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TBD - Review Contract</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TBD - Review Contract</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>Little Elm 01-01-25 contract.pdf</t>
@@ -72144,7 +72227,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Active - Review for Terms</t>
+          <t>Active - Contract on File</t>
         </is>
       </c>
     </row>
@@ -72161,42 +72244,42 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>TBD - Review Contract</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TBD - Review Contract</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TBD - Review Contract</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>McKinney Frontier Trash Agreement.pdf</t>
+          <t>McKinney Frontier Trash  Agreement.pdf</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Review Needed</t>
+          <t>Active - Contract on File</t>
         </is>
       </c>
     </row>
@@ -72208,39 +72291,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Waste Consolidators Inc (Bulk)</t>
+          <t>Waste Consolidators Inc (Ally Waste)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>TBD - Review Bulk Contract</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>TBD - Review Contract</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>TBD - Review Contract</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>Pavilions at Arrowhead - Waste Consolidators Inc Bulk Agreement.pdf</t>
@@ -72248,7 +72331,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Review Needed</t>
+          <t>Active - Contract on File</t>
         </is>
       </c>
     </row>
@@ -72260,39 +72343,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Waste Consolidators Inc (Bulk)</t>
+          <t>Waste Consolidators Inc (Ally Waste)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>TBD - Review Bulk Contract</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>TBD - Review Contract</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>TBD - Review Contract</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>Springs at Alta Mesa - WCI Bulk Agreement.pdf</t>
@@ -72300,7 +72383,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Review Needed</t>
+          <t>Active - Contract on File</t>
         </is>
       </c>
     </row>
@@ -72312,47 +72395,47 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Waste Management</t>
+          <t>Waste Consolidators Inc (Ally Waste)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>01/12/2018</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>TBD - Review Contract</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>TBD</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>TBD - Review Contract</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>TBD</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Tempe Vista - Waste Management Agreement.pdf</t>
+          <t>Tempe Vista - WCI Bulk Agreement.pdf</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Review Needed</t>
+          <t>Active - Contract on File</t>
         </is>
       </c>
     </row>
@@ -72364,7 +72447,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Republic Services</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -72404,7 +72487,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Contract Needed</t>
+          <t>Active - Contract Needed</t>
         </is>
       </c>
     </row>
@@ -72416,7 +72499,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Community Waste Disposal, LP</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -72456,7 +72539,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Contract Needed</t>
+          <t>Active - Contract Needed</t>
         </is>
       </c>
     </row>
@@ -72468,7 +72551,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TBD</t>
+          <t>Waste Management + Ally Waste</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -72508,7 +72591,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Contract Needed</t>
+          <t>Active - Contract Needed</t>
         </is>
       </c>
     </row>
